--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11E5E5-F36F-48E4-8936-0C40F9564517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C09E78-E28D-47AE-B7AF-8E5C23122705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <f t="shared" ref="D2:D33" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A16)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -826,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -987,7 +987,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
+        <f t="shared" ref="D34:D65" si="1">IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -996,7 +996,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
+        <f t="shared" ref="D66:D91" si="2">IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C09E78-E28D-47AE-B7AF-8E5C23122705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A7FF6-C014-4A36-9ED0-832F276ED4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>운영체제, 리눅스 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,9 +982,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421A7FF6-C014-4A36-9ED0-832F276ED4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5AF928-54B9-0340-B4D9-D76A04CD560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,42 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 데이터 저장이 가능한 물리적 장치
+- 종류 : 하드 드라이브 디스크(HDD), 솔리드 스테이트 드라이브(SSD) 
+- 어원 : 그리스어 디스크는 원반. HDD 내부의 플래터라가 원반 모양이라 디스크라고 칭함.
+- 디스크는 데이터 저장 장치를 뜻하는 말로 굳어져, 원반과 관련 없는 SSD도 디스크로 칭함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 물리적 디스크를 논리적인 영역으로 나눈 것.
+- 나눠진 각각의 파티션은 독립된 저장 장치처럼 사용할 수 있다.
+- 어원 : Partition - 구분, 구획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 파티션을 사용자에게 논리적인 '장치'로 보여주는 것.
+(2) 운영체제에서 인식하고 관리하는 모든 저장 장치
+- 윈도우 운영체제에서 C: D: 등은 파티션을 논리적으로 독립된 장치처럼 보여주는 드라이브이다.
+- 어원 : 몰다, 운전하다 drive 가 어원으로 추측됨. 예전의 원반 모양 디스크가 도는 모습에서 딴 것으로 추측.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,11 +304,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,970 +593,1078 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="96.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="54">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A16)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="str">
-        <f t="shared" ref="D34:D65" si="1">IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1" t="str">
-        <f t="shared" ref="D66:D91" si="2">IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5AF928-54B9-0340-B4D9-D76A04CD560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E41575E-636F-6E4D-8EFC-B37447E9DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,14 @@
 (2) 운영체제에서 인식하고 관리하는 모든 저장 장치
 - 윈도우 운영체제에서 C: D: 등은 파티션을 논리적으로 독립된 장치처럼 보여주는 드라이브이다.
 - 어원 : 몰다, 운전하다 drive 가 어원으로 추측됨. 예전의 원반 모양 디스크가 도는 모습에서 딴 것으로 추측.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,9 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -678,21 +688,18 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -706,12 +713,12 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
@@ -720,7 +727,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -734,7 +741,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -748,12 +755,12 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
@@ -762,7 +769,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -776,7 +783,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -790,7 +797,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -804,7 +811,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -818,12 +825,12 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
@@ -832,12 +839,12 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A16)&gt;1, "중복", "")</f>
@@ -846,12 +853,12 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
@@ -860,12 +867,12 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
@@ -874,7 +881,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -888,12 +895,12 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
@@ -902,7 +909,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -916,12 +923,12 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
@@ -930,7 +937,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -944,7 +951,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -958,7 +965,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -972,7 +979,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -986,7 +993,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1000,7 +1007,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1014,7 +1021,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1028,7 +1035,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1042,7 +1049,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1056,12 +1063,12 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
@@ -1070,12 +1077,12 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
@@ -1083,20 +1090,28 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E34" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E35" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
         <v/>
@@ -1662,6 +1677,26 @@
         <v/>
       </c>
     </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E41575E-636F-6E4D-8EFC-B37447E9DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0819548E-9120-4A26-A2E9-A142CFFAF737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부트로더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
   </si>
   <si>
     <t>중복여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,6 +231,121 @@
   </si>
   <si>
     <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브디렉터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심볼릭링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concatenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸</t>
+  </si>
+  <si>
+    <t>- 사용자와 커널 사이에서 명령어를 해석하여 상호작용 할 수 있게 해주는 인터페이스
+- 명령어 해석기 또는 명령 행 인터페이스(명령 행 인터페이스는 셸의 종류 중 하나)
+- 사용자는 셸을 통해 명령어(command)를 입력하고, 커널은 이를 해석해 컴퓨터 시스템에 필요한 작업을 함
+- 셸은 명령 행 인터페이스(CLI) 혹은 그래픽 사용자 인터페이스(GUI)를 사용할 수 있다.
+- 셸 명령을 사용하면 GUI로는 수행하기 힘든 다양한 기능을 수행할 수 있음
+- 셸 스크립트와 같이 셸 명령어를 프로그램으로 작성하여 처리 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 하드웨어와 운영체제 간의 다리 역할을 하는 것
+- 커널은 운영체제의 핵심이다.
+- 시스템 자원을 제어하고 관리한다.
+(1) 프로세스 관리 : 여러 프로그램이 실행될 수 있도록 프로세스를 관리하고, CPU 시간을 할당한다.
+(2) 메모리 관리 : 각 프로그램이 필요한 메모리를 사용할 수 있도록 메모리 자원을 관리한다.
+(3) 파일 시스템 관리 : 데이터 저장 및 검색이 가능하도록 파일 시스템을 관리한다.
+(4) 장치 제어 : 네트워크, 디스크, 프린터 등 하드웨어 장치와의 통신을 관리한다.
+(5) 보안과 접근 제어 : 사용자가 시스템에 접근할 수 있는 권한을 관리해 보안을 유지한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,14 +419,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,46 +713,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="96.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="96.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="72">
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -650,15 +764,15 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="54">
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -668,15 +782,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72">
+    <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -686,18 +800,18 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -711,9 +825,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -725,7 +839,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,7 +853,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,7 +867,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,7 +881,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -781,7 +895,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -795,7 +909,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -809,9 +923,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -823,7 +937,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -837,21 +951,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A16)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -865,26 +979,34 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,9 +1015,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -907,9 +1029,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -921,9 +1043,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -935,9 +1057,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -949,9 +1071,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -963,9 +1085,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -977,9 +1099,9 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -991,9 +1113,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1005,9 +1127,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1019,9 +1141,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1033,9 +1155,9 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1047,9 +1169,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1061,9 +1183,9 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1075,9 +1197,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1089,195 +1211,261 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E36" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E37" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E38" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E39" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E40" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E41" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E42" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E43" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E44" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E45" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E46" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E47" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E48" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E49" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E50" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E51" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1287,7 +1475,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1297,7 +1485,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1307,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1317,7 +1505,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1327,7 +1515,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1337,7 +1525,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1347,7 +1535,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1357,7 +1545,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1367,7 +1555,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1377,7 +1565,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1387,7 +1575,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1397,7 +1585,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1407,7 +1595,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1417,7 +1605,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1427,7 +1615,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1437,7 +1625,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1447,7 +1635,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1457,7 +1645,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1467,7 +1655,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1477,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1487,7 +1675,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1497,7 +1685,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1507,7 +1695,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1517,7 +1705,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1527,7 +1715,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1537,7 +1725,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1547,7 +1735,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1557,7 +1745,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1567,7 +1755,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1577,7 +1765,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1587,7 +1775,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1597,7 +1785,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1607,7 +1795,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1617,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1627,7 +1815,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1637,7 +1825,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1647,7 +1835,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1657,7 +1845,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1667,7 +1855,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1677,7 +1865,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1687,7 +1875,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1697,6 +1885,16 @@
         <v/>
       </c>
     </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0819548E-9120-4A26-A2E9-A142CFFAF737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25E58D7-2EAC-49F4-BF71-10D1DC408BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,182 @@
 (3) 파일 시스템 관리 : 데이터 저장 및 검색이 가능하도록 파일 시스템을 관리한다.
 (4) 장치 제어 : 네트워크, 디스크, 프린터 등 하드웨어 장치와의 통신을 관리한다.
 (5) 보안과 접근 제어 : 사용자가 시스템에 접근할 수 있는 권한을 관리해 보안을 유지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티션테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티부팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커널이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initramfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본타깃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부팅모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온디멘드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의존성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cockpit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X윈도우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc(bashrc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -431,6 +607,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,11 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1466,7 +1645,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1476,7 +1657,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1486,7 +1669,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1496,7 +1681,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1506,7 +1693,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1516,7 +1705,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1526,7 +1717,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1536,7 +1729,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1546,7 +1741,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1556,7 +1753,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1566,7 +1765,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1576,7 +1777,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1586,7 +1789,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1596,7 +1801,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1606,7 +1813,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1616,7 +1825,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1626,7 +1837,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1636,7 +1849,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1646,7 +1861,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1656,7 +1873,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1666,7 +1885,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1676,7 +1897,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1686,7 +1909,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1696,7 +1921,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1706,7 +1933,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1716,7 +1945,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1726,7 +1957,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1736,7 +1969,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1746,7 +1981,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1756,7 +1993,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1766,7 +2005,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1776,7 +2017,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1786,7 +2029,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1796,7 +2041,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1806,7 +2053,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1816,7 +2065,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1826,7 +2077,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1836,7 +2089,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1846,7 +2101,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1856,7 +2113,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1866,7 +2125,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -1876,7 +2137,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -1886,12 +2149,23 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25E58D7-2EAC-49F4-BF71-10D1DC408BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADE2B3-F0E7-4ED9-B34C-E17482577D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,6 +522,54 @@
   </si>
   <si>
     <t>-r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이식성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어독립성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴파일러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,55 +973,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
         <v/>
@@ -981,24 +1015,23 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
         <v/>
@@ -1006,13 +1039,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
         <v/>
@@ -1020,13 +1051,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
         <v/>
@@ -1034,13 +1063,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
         <v/>
@@ -1048,13 +1075,11 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
         <v/>
@@ -1062,13 +1087,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
         <v/>
@@ -1076,54 +1099,64 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
@@ -1132,21 +1165,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A16)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1158,36 +1188,28 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
@@ -1196,7 +1218,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1210,12 +1232,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
@@ -1224,12 +1246,12 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
@@ -1238,7 +1260,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1252,7 +1274,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1266,7 +1288,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1280,7 +1302,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1294,12 +1316,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
@@ -1308,24 +1330,28 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1334,12 +1360,16 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1380,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1364,7 +1394,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1378,12 +1408,12 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
@@ -1392,12 +1422,12 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
@@ -1406,12 +1436,12 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
@@ -1420,12 +1450,12 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
@@ -1434,12 +1464,12 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
@@ -1448,12 +1478,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
@@ -1462,12 +1492,12 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
@@ -1476,7 +1506,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1490,7 +1520,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1504,7 +1534,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1518,12 +1548,12 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
@@ -1532,12 +1562,12 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
@@ -1546,7 +1576,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1560,12 +1590,12 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
@@ -1574,14 +1604,12 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
@@ -1590,12 +1618,12 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
@@ -1604,12 +1632,12 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
@@ -1618,12 +1646,12 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
@@ -1632,12 +1660,12 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
@@ -1646,11 +1674,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E52" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
         <v/>
@@ -1658,11 +1688,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E53" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
         <v/>
@@ -1670,11 +1702,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E54" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
         <v/>
@@ -1682,11 +1716,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E55" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
         <v/>
@@ -1694,11 +1730,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E56" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
         <v/>
@@ -1706,11 +1744,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E57" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
         <v/>
@@ -1718,11 +1758,15 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E58" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
         <v/>
@@ -1730,11 +1774,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E59" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
         <v/>
@@ -1742,11 +1788,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E60" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
         <v/>
@@ -1754,11 +1802,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E61" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
         <v/>
@@ -1766,11 +1816,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E62" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
         <v/>
@@ -1778,7 +1830,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1790,7 +1842,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1802,7 +1854,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1814,7 +1866,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1826,7 +1878,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1838,7 +1890,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1850,7 +1902,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1862,7 +1914,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1874,7 +1926,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1886,7 +1938,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1898,7 +1950,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1910,7 +1962,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1922,7 +1974,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1934,7 +1986,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1946,7 +1998,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1958,7 +2010,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1970,7 +2022,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1982,7 +2034,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1994,7 +2046,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2006,7 +2058,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2018,7 +2070,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2030,7 +2082,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2042,7 +2094,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2054,7 +2106,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2066,7 +2118,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2078,7 +2130,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2090,7 +2142,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2102,7 +2154,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2114,7 +2166,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2126,7 +2178,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2138,7 +2190,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2150,7 +2202,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2161,11 +2213,1056 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="4" t="str">
-        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="5"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="5"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="5"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="5"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="5"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="5"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="5"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="5"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="5"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="5"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="5"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="5"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="5"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="5"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="5"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="5"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="5"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="5"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="5"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="5"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="5"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="5"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="5"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="5"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="5"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="5"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="5"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="5"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="5"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="5"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="5"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="5"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="5"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="5"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="5"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="5"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="5"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="5"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="5"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="5"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="5"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="5"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="5"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="5"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="5"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="5"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="5"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="5"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A191)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="5"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A192)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="5"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A193)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="5"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A194)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="5"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A195)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="5"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A196)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="5"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A197)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADE2B3-F0E7-4ED9-B34C-E17482577D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D385EBB-1627-437D-8EF1-46F84B03D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="147">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가상머신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스 시스템, 운영체제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FHS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,15 +170,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>운영체제, 리눅스 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목적 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,10 +287,6 @@
   </si>
   <si>
     <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하드웨어독립성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,6 +546,102 @@
   </si>
   <si>
     <t>GNU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비지도학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이블링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역극소점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배타적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dendrogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면단위편집기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인단위편집기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구문구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIX, LINUX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -961,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -970,17 +1042,17 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
@@ -989,12 +1061,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
@@ -1003,11 +1075,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E4" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
         <v/>
@@ -1015,11 +1089,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E5" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
         <v/>
@@ -1027,11 +1103,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E6" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
         <v/>
@@ -1039,11 +1117,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E7" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
         <v/>
@@ -1051,11 +1131,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E8" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
         <v/>
@@ -1063,11 +1145,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E9" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
         <v/>
@@ -1075,11 +1159,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E10" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
         <v/>
@@ -1087,11 +1173,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E11" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
         <v/>
@@ -1099,11 +1187,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E12" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
         <v/>
@@ -1111,16 +1201,16 @@
     </row>
     <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
@@ -1129,16 +1219,16 @@
     </row>
     <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
@@ -1147,16 +1237,16 @@
     </row>
     <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
@@ -1165,23 +1255,23 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
@@ -1190,12 +1280,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
@@ -1204,12 +1294,12 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
@@ -1223,7 +1313,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
@@ -1232,12 +1322,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
@@ -1246,12 +1336,12 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
@@ -1260,12 +1350,12 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
@@ -1274,12 +1364,12 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
@@ -1288,12 +1378,12 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
@@ -1302,12 +1392,12 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
@@ -1316,12 +1406,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
@@ -1330,12 +1420,12 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
@@ -1344,16 +1434,16 @@
     </row>
     <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
@@ -1362,16 +1452,16 @@
     </row>
     <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
@@ -1380,12 +1470,12 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
@@ -1394,12 +1484,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
@@ -1408,12 +1498,12 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
@@ -1422,12 +1512,12 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
@@ -1436,12 +1526,12 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
@@ -1450,12 +1540,12 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
@@ -1464,12 +1554,12 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
@@ -1478,12 +1568,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
@@ -1492,12 +1582,12 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
@@ -1506,12 +1596,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
@@ -1520,12 +1610,12 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
@@ -1534,12 +1624,12 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
@@ -1548,12 +1638,12 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
@@ -1562,12 +1652,12 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
@@ -1576,12 +1666,12 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
@@ -1590,12 +1680,12 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
@@ -1604,12 +1694,12 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
@@ -1618,12 +1708,12 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
@@ -1632,12 +1722,12 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
@@ -1646,12 +1736,12 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
@@ -1660,12 +1750,12 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
@@ -1674,12 +1764,12 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
@@ -1688,12 +1778,12 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
@@ -1702,12 +1792,12 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
@@ -1716,12 +1806,12 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
@@ -1730,12 +1820,12 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
@@ -1744,12 +1834,12 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
@@ -1758,14 +1848,14 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
@@ -1774,12 +1864,12 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
@@ -1788,12 +1878,12 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
@@ -1802,12 +1892,12 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
@@ -1816,12 +1906,12 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
@@ -1830,11 +1920,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E63" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
         <v/>
@@ -1842,11 +1934,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E64" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
         <v/>
@@ -1854,11 +1948,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E65" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
         <v/>
@@ -1866,11 +1962,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E66" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
         <v/>
@@ -1878,11 +1976,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E67" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
         <v/>
@@ -1890,11 +1990,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E68" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
         <v/>
@@ -1902,11 +2004,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E69" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
         <v/>
@@ -1914,11 +2018,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E70" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
         <v/>
@@ -1926,11 +2032,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E71" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
         <v/>
@@ -1938,11 +2046,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E72" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
         <v/>
@@ -1950,11 +2060,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E73" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
         <v/>
@@ -1962,11 +2074,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E74" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
         <v/>
@@ -1974,11 +2088,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E75" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
         <v/>
@@ -1986,11 +2102,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E76" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
         <v/>
@@ -1998,11 +2116,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E77" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
         <v/>
@@ -2010,11 +2130,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E78" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
         <v/>
@@ -2022,11 +2144,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E79" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
         <v/>
@@ -2034,11 +2158,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E80" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
         <v/>
@@ -2046,11 +2172,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E81" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
         <v/>
@@ -2058,11 +2186,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E82" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
         <v/>
@@ -2070,11 +2200,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E83" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
         <v/>
@@ -2082,11 +2214,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E84" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
         <v/>
@@ -2094,11 +2228,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E85" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
         <v/>
@@ -2106,11 +2242,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E86" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
         <v/>
@@ -2118,11 +2256,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E87" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
         <v/>
@@ -2130,11 +2270,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E88" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
         <v/>
@@ -2142,11 +2284,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E89" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
         <v/>
@@ -2154,11 +2298,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E90" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
         <v/>
@@ -2166,11 +2312,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E91" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
         <v/>
@@ -2178,11 +2326,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E92" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
         <v/>
@@ -2190,11 +2340,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E93" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
         <v/>
@@ -2202,11 +2354,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E94" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
         <v/>
@@ -2214,11 +2368,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E95" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
         <v/>
@@ -2226,11 +2382,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E96" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
         <v/>
@@ -2238,11 +2396,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E97" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
         <v/>
@@ -2250,11 +2410,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E98" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
         <v/>
@@ -2262,11 +2424,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E99" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
         <v/>
@@ -2274,11 +2438,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E100" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
         <v/>
@@ -2286,11 +2452,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E101" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
         <v/>
@@ -2298,11 +2466,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E102" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
         <v/>
@@ -2310,11 +2480,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E103" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
         <v/>
@@ -2322,11 +2494,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E104" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
         <v/>
@@ -2334,11 +2508,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E105" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
         <v/>
@@ -2346,221 +2522,309 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E106" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+      <c r="A107" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E107" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+      <c r="A108" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E108" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+      <c r="A109" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E109" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
+      <c r="A110" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E110" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
+      <c r="A111" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E111" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+      <c r="A112" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E112" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E113" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E114" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E115" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E116" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E117" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="A118" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E118" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E119" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
+      <c r="A120" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E120" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="A121" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E121" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
+      <c r="A122" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E122" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="A123" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E123" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+      <c r="A124" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E124" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E125" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E126" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
+      <c r="A127" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E127" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
         <v/>
@@ -3226,46 +3490,6 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="5"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A194)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A195)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A196)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A197)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D385EBB-1627-437D-8EF1-46F84B03D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63ED881-0C1F-8240-97B3-DD5692C881CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,12 +644,200 @@
     <t>UNIX, LINUX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>추세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정경계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주성분분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형판별분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이퍼파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준지도학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약지도학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컴퓨터가 데이터를 통해 학습하여, 예측을 하거나 결정을 내리는 데 도움을 줄 수 있도록 하는 방법론과 알고리즘의 집합. 학습의 궁극적인 목표는 앞으로 주어질 새로운 데이터에 대해 이러한 예측이나 의사결정에 도움을 주는 성능을 최대화 하는 것이다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학습 과정에서 데이터(입력값)과 그에 대한 목표 출력값(정답)이 함께 제공되는 형태&lt;br&gt;- 목표 출력값이 교사(supervisor)와 같이 학습의 방향을 지도한다&lt;br&gt;- 분류 및 회귀 문제에 적합한 방법&lt;br&gt;- 지도학습을 위해서는 목표 출력값이 필요하며, 목표 출력값을 레이블링 하는 데에는 비용이 발생할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학습 과정에서 목표 출력값 없이, 입력값만 주어지는 형태&lt;br&gt;- 군집화 문제에 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도학습과 비지도학습을 섞어놓은 형태&lt;br&gt;- 지도학습에서 발생하는 비용을 최소화하는 방법&lt;br&gt;- 입력-출력 데이터 쌍이 있는 데이터들과, 입력값만 있는 데이터 모두를 학습에 활용한다&lt;br&gt;- 이러한 준지도 학습이 학습 정확도에서 상당히 좋음이 확인되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 출력값에 대해 "좋다/나쁘다" "성공/실패"와 같은 교사 신호를 줌&lt;br&gt;- 이러한 교사 신호는 보상(reward)와 같은 것으로 보면 된다.&lt;br&gt;- 교사 신호는 정확한 값이 아니고, 즉시 주어지는것이 아님&lt;br&gt;- 최근 들어 딥러닝에서 많이 사용되는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 부정확한 레이블도 부여해서 학습에 사용하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기지도학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학습 데이터에 레이블을 스스로 부여한 뒤&lt;br&gt;- 지도 또는 비지도 학습으로 실제 모델을 학습&lt;br&gt;- 최근 뛰어난 결과를 보여주고 있음&lt;br&gt;- 낮은 품질의 데이터로 학습해도 결과물의 품질을 높일 수 있음&lt;br&gt;- 인간이 사물을 분류하는 방법을 밀접하게 모방한 학습법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본집단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집단이란 연구나 분석의 대상으로 삼는 모든 개체나 데이터를 포함하는 전체 집단을 의미하는 것이다. 쉽게 말해 통계에서 "데이터 전체"를 가리키는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집단에서 추출한 일부의 데이터 집단을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특징이란 데이터의 중요한 속성이나 설명(독립)변수로 정의할 수 있다. 이러한 특징은 머신러닝 모델이 학습을 하고 예측하는 데 필요한 정보로, 각 데이터를 구성하는, 혹은 각 데이터를 표현하는 개별적인 요소나 값 들을 의미한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"목적"에 대해 기계가 이해할 수 있도록 기준을 함수로 정의한 것.
+목적함수란 학습 시스템의 평가를 위해 주어진 데이터 집합을 이용해 학습 시스템이 달성해야 하는 목표를 기계가 알 수 있는 수학적 함수로 정의한 것이다. 즉, 목적함수는 모델이 학습을 통해 최소화 하거나 최대화 하려는 수식이 된다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모델의 예측값과 실제값 간의 차이(=오차)를 계산하는 함수로, 대표적인 목적함수 중 하나이다. 즉, 오차함수를 목적함수로 할 경우, 학습의 목적은 "오차를 최소화 하는 것" 이 될 것이다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반화오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학습에 사용된 데이터 집합에 대해 계산된 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학습에 사용되지 않은 새로운 데이터 집합에 대해 계산된 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 현실 세계의 모든 데이터 분포 전체에 대해 정의되는 오차&lt;br&gt;- 현실적으로 계산이 불가능한 궁극적인 개념으로,&lt;br&gt;- 일반화 오차 대신 테스트 오차로 평가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-fold교차검증법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">궁극적인 학습의 목표는 모든 데이터에 대한 오차를 최소화 하는, 즉 일반화 오차를 최소화 하는 것이다. 하지만 현실적으로 실제 존재하는 모든 데이터를 관찰하고 식별하는 것은 불가능하므로, 일반화 오차 대신 테스트 오차를 통해 모델의 성능을 평가하게 된다.  
+이러한 테스트 오차 계산에 있어서, 한정적인 테스트 데이터셋을 이용하 좀 더 일반화오차에 가까운 오차 계산을 하기 위한 여러 노력들이 있었다. 대표적인 것이 K-Fold 교차 검증법, 교차 검증법 등이 있다.  
+K-Fold 교차 검증법 (K-fold cross validation)은 "K-Fold" 와 "교차 검증"이라는 두 가지 개념을 나눠서 보면 쉽게 이해할 수 있다.  
+(1) K-Fold  
+주어진 데이터 집합을 K개의 부분집합으로 나누는 것.
+(2) 교차 검증  
+K개로 나눠진 데이터셋을, 그 중 하나의 집합을 검증 데이터셋으로, 나머지 데이터셋을 학습 데이터셋으로 하여 모델을 훈련한 뒤 검증(테스트) 하는 것. 이를 각각의 나눠진 데이터셋 수만큼 교차해서 K번 진행하게 된다.  
+이러한 K-Fold 교차 검증을 통해 얻은 오차들을 평균을 내면, 단일 학습시보다 일반화 오차에 더 가까운 평가값을 얻게 된다고 알려져 있다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -731,6 +919,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,30 +1209,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="96.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="96.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1045,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1059,7 +1256,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1073,7 +1270,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1087,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -1101,7 +1298,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1115,7 +1312,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -1129,7 +1326,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
@@ -1143,7 +1340,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -1157,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -1171,7 +1368,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1185,7 +1382,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -1199,7 +1396,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="72">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1414,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="54">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="72">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +1450,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1264,12 +1461,12 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
         <v>146</v>
       </c>
@@ -1278,12 +1475,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>146</v>
       </c>
@@ -1292,12 +1489,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1" t="s">
         <v>146</v>
       </c>
@@ -1306,12 +1503,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>146</v>
       </c>
@@ -1320,12 +1517,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
         <v>146</v>
       </c>
@@ -1334,12 +1531,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
         <v>146</v>
       </c>
@@ -1348,12 +1545,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="1" t="s">
         <v>146</v>
       </c>
@@ -1362,12 +1559,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
         <v>146</v>
       </c>
@@ -1376,12 +1573,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1" t="s">
         <v>146</v>
       </c>
@@ -1390,12 +1587,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
         <v>146</v>
       </c>
@@ -1404,12 +1601,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1" t="s">
         <v>146</v>
       </c>
@@ -1418,12 +1615,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1" t="s">
         <v>146</v>
       </c>
@@ -1432,7 +1629,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="144">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1647,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="108">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1468,12 +1665,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1" t="s">
         <v>146</v>
       </c>
@@ -1482,12 +1679,12 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="1" t="s">
         <v>146</v>
       </c>
@@ -1496,12 +1693,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="1" t="s">
         <v>146</v>
       </c>
@@ -1510,12 +1707,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="1" t="s">
         <v>146</v>
       </c>
@@ -1524,12 +1721,12 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="1" t="s">
         <v>146</v>
       </c>
@@ -1538,12 +1735,12 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="1" t="s">
         <v>146</v>
       </c>
@@ -1552,12 +1749,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="1" t="s">
         <v>146</v>
       </c>
@@ -1566,12 +1763,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="1" t="s">
         <v>146</v>
       </c>
@@ -1580,12 +1777,12 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="1" t="s">
         <v>146</v>
       </c>
@@ -1594,12 +1791,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
         <v>146</v>
       </c>
@@ -1608,12 +1805,12 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1" t="s">
         <v>146</v>
       </c>
@@ -1622,12 +1819,12 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1" t="s">
         <v>146</v>
       </c>
@@ -1636,12 +1833,12 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1" t="s">
         <v>146</v>
       </c>
@@ -1650,12 +1847,12 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1" t="s">
         <v>146</v>
       </c>
@@ -1664,12 +1861,12 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1" t="s">
         <v>146</v>
       </c>
@@ -1678,12 +1875,12 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1" t="s">
         <v>146</v>
       </c>
@@ -1692,12 +1889,12 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="1" t="s">
         <v>146</v>
       </c>
@@ -1706,12 +1903,12 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1720,12 +1917,12 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="1" t="s">
         <v>146</v>
       </c>
@@ -1734,12 +1931,12 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="1" t="s">
         <v>146</v>
       </c>
@@ -1748,12 +1945,12 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="1" t="s">
         <v>146</v>
       </c>
@@ -1762,12 +1959,12 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="1" t="s">
         <v>146</v>
       </c>
@@ -1776,12 +1973,12 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="1" t="s">
         <v>146</v>
       </c>
@@ -1790,12 +1987,12 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="1" t="s">
         <v>60</v>
       </c>
@@ -1804,12 +2001,12 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="1" t="s">
         <v>60</v>
       </c>
@@ -1818,12 +2015,12 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="1" t="s">
         <v>146</v>
       </c>
@@ -1832,12 +2029,12 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="1" t="s">
         <v>146</v>
       </c>
@@ -1846,12 +2043,12 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="18">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1862,12 +2059,12 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="1" t="s">
         <v>146</v>
       </c>
@@ -1876,12 +2073,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="1" t="s">
         <v>146</v>
       </c>
@@ -1890,12 +2087,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1904,12 +2101,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1918,12 +2115,12 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="1" t="s">
         <v>146</v>
       </c>
@@ -1932,12 +2129,12 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="1" t="s">
         <v>146</v>
       </c>
@@ -1946,12 +2143,12 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="1" t="s">
         <v>146</v>
       </c>
@@ -1960,12 +2157,12 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="1" t="s">
         <v>146</v>
       </c>
@@ -1974,12 +2171,12 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="1" t="s">
         <v>146</v>
       </c>
@@ -1988,12 +2185,12 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="1" t="s">
         <v>146</v>
       </c>
@@ -2002,12 +2199,12 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="1" t="s">
         <v>146</v>
       </c>
@@ -2016,12 +2213,12 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="1" t="s">
         <v>146</v>
       </c>
@@ -2030,12 +2227,12 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="1" t="s">
         <v>146</v>
       </c>
@@ -2044,12 +2241,12 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="1" t="s">
         <v>146</v>
       </c>
@@ -2058,12 +2255,12 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="1" t="s">
         <v>146</v>
       </c>
@@ -2072,12 +2269,12 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="1" t="s">
         <v>146</v>
       </c>
@@ -2086,12 +2283,12 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="1" t="s">
         <v>146</v>
       </c>
@@ -2100,12 +2297,12 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="1" t="s">
         <v>146</v>
       </c>
@@ -2114,12 +2311,12 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="1" t="s">
         <v>146</v>
       </c>
@@ -2128,12 +2325,12 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="1" t="s">
         <v>146</v>
       </c>
@@ -2142,12 +2339,12 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="1" t="s">
         <v>146</v>
       </c>
@@ -2156,12 +2353,12 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="1" t="s">
         <v>146</v>
       </c>
@@ -2170,12 +2367,12 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="1" t="s">
         <v>146</v>
       </c>
@@ -2184,12 +2381,12 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="1" t="s">
         <v>146</v>
       </c>
@@ -2198,12 +2395,12 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="1" t="s">
         <v>146</v>
       </c>
@@ -2212,12 +2409,12 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="1" t="s">
         <v>146</v>
       </c>
@@ -2226,12 +2423,12 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="1" t="s">
         <v>146</v>
       </c>
@@ -2240,12 +2437,12 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="1" t="s">
         <v>146</v>
       </c>
@@ -2254,12 +2451,12 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="1" t="s">
         <v>146</v>
       </c>
@@ -2268,12 +2465,12 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="1" t="s">
         <v>146</v>
       </c>
@@ -2282,12 +2479,12 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="1" t="s">
         <v>146</v>
       </c>
@@ -2296,12 +2493,12 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="1" t="s">
         <v>146</v>
       </c>
@@ -2310,12 +2507,12 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="1" t="s">
         <v>146</v>
       </c>
@@ -2324,12 +2521,12 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="1" t="s">
         <v>146</v>
       </c>
@@ -2338,12 +2535,12 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="1" t="s">
         <v>146</v>
       </c>
@@ -2352,12 +2549,12 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="1" t="s">
         <v>146</v>
       </c>
@@ -2366,12 +2563,12 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="1" t="s">
         <v>146</v>
       </c>
@@ -2380,12 +2577,12 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="1" t="s">
         <v>146</v>
       </c>
@@ -2394,12 +2591,12 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="1" t="s">
         <v>146</v>
       </c>
@@ -2408,12 +2605,12 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="1" t="s">
         <v>146</v>
       </c>
@@ -2422,12 +2619,12 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="1" t="s">
         <v>146</v>
       </c>
@@ -2436,12 +2633,12 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="1" t="s">
         <v>146</v>
       </c>
@@ -2450,12 +2647,12 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="1" t="s">
         <v>146</v>
       </c>
@@ -2464,12 +2661,12 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="1" t="s">
         <v>146</v>
       </c>
@@ -2478,12 +2675,12 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="1" t="s">
         <v>146</v>
       </c>
@@ -2492,12 +2689,12 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="1" t="s">
         <v>146</v>
       </c>
@@ -2506,12 +2703,12 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="1" t="s">
         <v>146</v>
       </c>
@@ -2520,12 +2717,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="1" t="s">
         <v>146</v>
       </c>
@@ -2534,26 +2731,26 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E107" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>중복</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18">
       <c r="A108" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -2564,12 +2761,12 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="1" t="s">
         <v>125</v>
       </c>
@@ -2578,12 +2775,12 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="1" t="s">
         <v>125</v>
       </c>
@@ -2592,12 +2789,12 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="1" t="s">
         <v>125</v>
       </c>
@@ -2606,12 +2803,12 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="1" t="s">
         <v>125</v>
       </c>
@@ -2620,12 +2817,12 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="1" t="s">
         <v>125</v>
       </c>
@@ -2634,12 +2831,12 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="1" t="s">
         <v>125</v>
       </c>
@@ -2648,12 +2845,12 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="1" t="s">
         <v>125</v>
       </c>
@@ -2662,12 +2859,12 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="1" t="s">
         <v>125</v>
       </c>
@@ -2676,12 +2873,12 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="1" t="s">
         <v>125</v>
       </c>
@@ -2690,40 +2887,40 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E118" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E119" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="1" t="s">
         <v>146</v>
       </c>
@@ -2732,12 +2929,12 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="1" t="s">
         <v>146</v>
       </c>
@@ -2746,12 +2943,12 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="1" t="s">
         <v>146</v>
       </c>
@@ -2760,12 +2957,12 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="1" t="s">
         <v>146</v>
       </c>
@@ -2774,12 +2971,12 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="1" t="s">
         <v>146</v>
       </c>
@@ -2788,12 +2985,12 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="1" t="s">
         <v>146</v>
       </c>
@@ -2802,691 +2999,789 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E126" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E127" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
+    <row r="128" spans="1:5">
+      <c r="A128" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E128" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
+    <row r="129" spans="1:5">
+      <c r="A129" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E129" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
+    <row r="130" spans="1:5">
+      <c r="A130" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E130" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
+    <row r="131" spans="1:5">
+      <c r="A131" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E131" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
+    <row r="132" spans="1:5">
+      <c r="A132" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E132" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
+    <row r="133" spans="1:5">
+      <c r="A133" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E133" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
+    <row r="134" spans="1:5">
+      <c r="A134" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E134" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
+    <row r="135" spans="1:5">
+      <c r="A135" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E135" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
+    <row r="136" spans="1:5">
+      <c r="A136" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E136" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+    <row r="137" spans="1:5">
+      <c r="A137" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E137" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
+    <row r="138" spans="1:5">
+      <c r="A138" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E138" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
+    <row r="139" spans="1:5">
+      <c r="A139" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E139" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
+    <row r="140" spans="1:5">
+      <c r="A140" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E140" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
+    <row r="141" spans="1:5" ht="54">
+      <c r="A141" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="C141" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
+    <row r="142" spans="1:5" ht="54">
+      <c r="A142" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="C142" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
+    <row r="143" spans="1:5" ht="18">
+      <c r="A143" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="C143" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
+    <row r="144" spans="1:5" ht="54">
+      <c r="A144" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="C144" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
+    <row r="145" spans="1:5" ht="54">
+      <c r="A145" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="C145" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
+    <row r="146" spans="1:5" ht="18">
+      <c r="A146" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="C146" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
+    <row r="147" spans="1:5" ht="54">
+      <c r="A147" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="C147" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
+    <row r="148" spans="1:5">
+      <c r="A148" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
+    <row r="149" spans="1:5" ht="18">
+      <c r="A149" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="C149" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
+    <row r="150" spans="1:5" ht="36">
+      <c r="A150" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="C150" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
+    <row r="151" spans="1:5" ht="36">
+      <c r="A151" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="C151" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
+    <row r="152" spans="1:5" ht="72">
+      <c r="A152" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="C152" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
+        <v>중복</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="36">
+      <c r="A153" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="C153" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
+    <row r="154" spans="1:5" ht="18">
+      <c r="A154" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="C154" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
+    <row r="155" spans="1:5" ht="18">
+      <c r="A155" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="C155" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
+    <row r="156" spans="1:5" ht="36">
+      <c r="A156" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="C156" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
+    <row r="157" spans="1:5" ht="342">
+      <c r="A157" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="C157" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="5"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="5"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="5"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="5"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="5"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="5"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="5"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="5"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="5"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="5"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="5"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="5"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="5"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="5"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="5"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="5"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="5"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="5"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="5"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="5"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="5"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="5"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="5"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="5"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" s="5"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="5"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="5"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="5"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="5"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="5"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="5"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="5"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="5"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" s="5"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="str">
         <f>IF(COUNTIF($A:$A,$A191)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="5"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A192)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="5"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A193)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63ED881-0C1F-8240-97B3-DD5692C881CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A9B1D-42FB-094F-A1FB-2AE1CFAE2A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="194">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,14 @@
 (2) 교차 검증  
 K개로 나눠진 데이터셋을, 그 중 하나의 집합을 검증 데이터셋으로, 나머지 데이터셋을 학습 데이터셋으로 하여 모델을 훈련한 뒤 검증(테스트) 하는 것. 이를 각각의 나눠진 데이터셋 수만큼 교차해서 K번 진행하게 된다.  
 이러한 K-Fold 교차 검증을 통해 얻은 오차들을 평균을 내면, 단일 학습시보다 일반화 오차에 더 가까운 평가값을 얻게 된다고 알려져 있다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유클리디안거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨해튼거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,8 +1220,8 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1252,7 +1260,7 @@
         <v>146</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E2:E15" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1274,7 @@
         <v>146</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1280,7 +1288,7 @@
         <v>146</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1294,7 +1302,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1308,7 +1316,7 @@
         <v>146</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1322,7 +1330,7 @@
         <v>146</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1336,7 +1344,7 @@
         <v>146</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1350,7 +1358,7 @@
         <v>146</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1364,7 +1372,7 @@
         <v>146</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1378,7 +1386,7 @@
         <v>146</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1392,7 +1400,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1410,7 +1418,7 @@
         <v>146</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1428,7 +1436,7 @@
         <v>146</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1446,7 +1454,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1471,7 +1479,7 @@
         <v>146</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E17:E48" si="1">IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -1485,7 +1493,7 @@
         <v>146</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1499,7 +1507,7 @@
         <v>146</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1513,7 +1521,7 @@
         <v>146</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1527,7 +1535,7 @@
         <v>146</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1541,7 +1549,7 @@
         <v>146</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1555,7 +1563,7 @@
         <v>146</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1569,7 +1577,7 @@
         <v>146</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1583,7 +1591,7 @@
         <v>146</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1597,7 +1605,7 @@
         <v>146</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1611,7 +1619,7 @@
         <v>146</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1625,7 +1633,7 @@
         <v>146</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1643,7 +1651,7 @@
         <v>146</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1661,7 +1669,7 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1675,7 +1683,7 @@
         <v>146</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1689,7 +1697,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1703,7 +1711,7 @@
         <v>146</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1717,7 +1725,7 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1731,7 +1739,7 @@
         <v>146</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1745,7 +1753,7 @@
         <v>146</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1759,7 +1767,7 @@
         <v>146</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1773,7 +1781,7 @@
         <v>146</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1787,7 +1795,7 @@
         <v>146</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1801,7 +1809,7 @@
         <v>146</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1815,7 +1823,7 @@
         <v>146</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1829,7 +1837,7 @@
         <v>146</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1843,7 +1851,7 @@
         <v>146</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1857,7 +1865,7 @@
         <v>146</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1871,7 +1879,7 @@
         <v>146</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1885,7 +1893,7 @@
         <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1899,7 +1907,7 @@
         <v>146</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1913,7 +1921,7 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1927,7 +1935,7 @@
         <v>146</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E49:E80" si="2">IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -1941,7 +1949,7 @@
         <v>146</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1955,7 +1963,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1969,7 +1977,7 @@
         <v>146</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1983,7 +1991,7 @@
         <v>146</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1997,7 +2005,7 @@
         <v>60</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2011,7 +2019,7 @@
         <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2025,7 +2033,7 @@
         <v>146</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2039,7 +2047,7 @@
         <v>146</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2055,7 +2063,7 @@
         <v>146</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2069,7 +2077,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2083,7 +2091,7 @@
         <v>146</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2097,7 +2105,7 @@
         <v>61</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2111,7 +2119,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2125,7 +2133,7 @@
         <v>146</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2139,7 +2147,7 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2153,7 +2161,7 @@
         <v>146</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2167,7 +2175,7 @@
         <v>146</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2181,7 +2189,7 @@
         <v>146</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2195,7 +2203,7 @@
         <v>146</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2209,7 +2217,7 @@
         <v>146</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2223,7 +2231,7 @@
         <v>146</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2237,7 +2245,7 @@
         <v>146</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2251,7 +2259,7 @@
         <v>146</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2265,7 +2273,7 @@
         <v>146</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2279,7 +2287,7 @@
         <v>146</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2293,7 +2301,7 @@
         <v>146</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2307,7 +2315,7 @@
         <v>146</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2321,7 +2329,7 @@
         <v>146</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2335,7 +2343,7 @@
         <v>146</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2349,7 +2357,7 @@
         <v>146</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2363,7 +2371,7 @@
         <v>146</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2377,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E81:E112" si="3">IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -2391,7 +2399,7 @@
         <v>146</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2405,7 +2413,7 @@
         <v>146</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2419,7 +2427,7 @@
         <v>146</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2433,7 +2441,7 @@
         <v>146</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2447,7 +2455,7 @@
         <v>146</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2461,7 +2469,7 @@
         <v>146</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2475,7 +2483,7 @@
         <v>146</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2489,7 +2497,7 @@
         <v>146</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2503,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2517,7 +2525,7 @@
         <v>146</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2531,7 +2539,7 @@
         <v>146</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2545,7 +2553,7 @@
         <v>146</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2559,7 +2567,7 @@
         <v>146</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2573,7 +2581,7 @@
         <v>146</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2587,7 +2595,7 @@
         <v>146</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2601,7 +2609,7 @@
         <v>146</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2615,7 +2623,7 @@
         <v>146</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2629,7 +2637,7 @@
         <v>146</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2643,7 +2651,7 @@
         <v>146</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2657,7 +2665,7 @@
         <v>146</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2671,7 +2679,7 @@
         <v>146</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2685,7 +2693,7 @@
         <v>146</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2699,7 +2707,7 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2713,7 +2721,7 @@
         <v>146</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2727,7 +2735,7 @@
         <v>146</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2741,7 +2749,7 @@
         <v>125</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v>중복</v>
       </c>
     </row>
@@ -2757,7 +2765,7 @@
         <v>125</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2771,7 +2779,7 @@
         <v>125</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2785,7 +2793,7 @@
         <v>125</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2799,7 +2807,7 @@
         <v>125</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2813,7 +2821,7 @@
         <v>125</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2827,7 +2835,7 @@
         <v>125</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E113:E144" si="4">IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -2841,7 +2849,7 @@
         <v>125</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2855,7 +2863,7 @@
         <v>125</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2869,7 +2877,7 @@
         <v>125</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2883,7 +2891,7 @@
         <v>125</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2897,7 +2905,7 @@
         <v>146</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2911,7 +2919,7 @@
         <v>146</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2925,7 +2933,7 @@
         <v>146</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2939,7 +2947,7 @@
         <v>146</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2953,7 +2961,7 @@
         <v>146</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2967,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2981,7 +2989,7 @@
         <v>146</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2995,7 +3003,7 @@
         <v>146</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3009,7 +3017,7 @@
         <v>125</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3023,7 +3031,7 @@
         <v>125</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3037,7 +3045,7 @@
         <v>125</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3051,7 +3059,7 @@
         <v>125</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3065,7 +3073,7 @@
         <v>125</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3079,7 +3087,7 @@
         <v>125</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3093,7 +3101,7 @@
         <v>125</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3107,7 +3115,7 @@
         <v>125</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3121,7 +3129,7 @@
         <v>125</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3135,7 +3143,7 @@
         <v>125</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3149,7 +3157,7 @@
         <v>125</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3163,7 +3171,7 @@
         <v>125</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3177,7 +3185,7 @@
         <v>125</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3191,7 +3199,7 @@
         <v>125</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3205,7 +3213,7 @@
         <v>125</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3219,7 +3227,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3233,7 +3241,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3247,7 +3255,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3261,7 +3269,7 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3275,7 +3283,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -3289,7 +3297,7 @@
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3303,7 +3311,7 @@
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3315,7 +3323,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3329,7 +3337,7 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3343,7 +3351,7 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3357,7 +3365,7 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3371,7 +3379,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v>중복</v>
       </c>
     </row>
@@ -3385,7 +3393,7 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3399,7 +3407,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3413,7 +3421,7 @@
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3427,7 +3435,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3441,27 +3449,31 @@
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="5"/>
+      <c r="A158" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="C158" s="7"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="5"/>
+      <c r="A159" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="B159" s="1"/>
       <c r="C159" s="7"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3471,7 +3483,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3481,7 +3493,7 @@
       <c r="C161" s="7"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3491,7 +3503,7 @@
       <c r="C162" s="7"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3501,7 +3513,7 @@
       <c r="C163" s="7"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3511,7 +3523,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3521,7 +3533,7 @@
       <c r="C165" s="7"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3531,7 +3543,7 @@
       <c r="C166" s="7"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3541,7 +3553,7 @@
       <c r="C167" s="7"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3551,7 +3563,7 @@
       <c r="C168" s="7"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3561,7 +3573,7 @@
       <c r="C169" s="7"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3571,7 +3583,7 @@
       <c r="C170" s="7"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3581,7 +3593,7 @@
       <c r="C171" s="7"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3591,7 +3603,7 @@
       <c r="C172" s="7"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3601,7 +3613,7 @@
       <c r="C173" s="7"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3611,7 +3623,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3621,7 +3633,7 @@
       <c r="C175" s="7"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3631,7 +3643,7 @@
       <c r="C176" s="7"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3641,7 +3653,7 @@
       <c r="C177" s="7"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E177:E191" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -3651,7 +3663,7 @@
       <c r="C178" s="7"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3661,7 +3673,7 @@
       <c r="C179" s="7"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3671,7 +3683,7 @@
       <c r="C180" s="7"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3681,7 +3693,7 @@
       <c r="C181" s="7"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3691,7 +3703,7 @@
       <c r="C182" s="7"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3701,7 +3713,7 @@
       <c r="C183" s="7"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3711,7 +3723,7 @@
       <c r="C184" s="7"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3721,7 +3733,7 @@
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3731,7 +3743,7 @@
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3741,7 +3753,7 @@
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3751,7 +3763,7 @@
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3761,7 +3773,7 @@
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3771,7 +3783,7 @@
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3781,7 +3793,7 @@
       <c r="C191" s="7"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A191)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A9B1D-42FB-094F-A1FB-2AE1CFAE2A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152B65B-C0DF-A042-ACEC-54A0CFF9876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="10560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="207">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,6 +839,58 @@
   </si>
   <si>
     <t>맨해튼거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습 데이터 집합의 분포 특성을 분석하여, 데이터들을 클래스로 분류를 하는 기준 경계를 지칭하는 말. 최적의 결정경계를 얻기 위해 데이터의 분포 특성을 분석하는 방법을 머신러닝에서는 "학습" 이라고 지칭한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 결정경계를 이용해 분류를 수행했을 때, 전체 데이터 중 분류에 성공한 데이터의 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 문제를 다루는 학습 시스템을 지칭하는 말. 베이즈 분류기, K-최근접이웃 분류기 등이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적의 결정경계를 얻기 위해 데이터의 분포 특성을 분석하는 방법을 머신러닝에서 지칭하는 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류는 지도학습의 하나로, 주어진 데이터 집합에 대해 이미 정의된 몇 개의 클래스로 입력데이터를 구분짓는 문제를 뜻한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,13 +1274,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160"/>
+      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="4"/>
@@ -3063,12 +3116,16 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="36">
       <c r="A130" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="7"/>
+      <c r="B130" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>125</v>
       </c>
@@ -3077,12 +3134,16 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="18">
       <c r="A131" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="D131" s="1" t="s">
         <v>125</v>
       </c>
@@ -3225,7 +3286,9 @@
       <c r="C141" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E141" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3239,7 +3302,9 @@
       <c r="C142" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E142" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3253,7 +3318,9 @@
       <c r="C143" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3267,7 +3334,9 @@
       <c r="C144" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E144" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3281,7 +3350,9 @@
       <c r="C145" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E145" s="1" t="str">
         <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
         <v/>
@@ -3295,7 +3366,9 @@
       <c r="C146" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E146" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3309,7 +3382,9 @@
       <c r="C147" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E147" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3321,7 +3396,9 @@
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="7"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E148" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3335,7 +3412,9 @@
       <c r="C149" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E149" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3349,7 +3428,9 @@
       <c r="C150" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E150" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3363,7 +3444,9 @@
       <c r="C151" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E151" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3377,7 +3460,9 @@
       <c r="C152" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E152" s="1" t="str">
         <f t="shared" si="5"/>
         <v>중복</v>
@@ -3391,7 +3476,9 @@
       <c r="C153" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E153" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3405,7 +3492,9 @@
       <c r="C154" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E154" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3419,7 +3508,9 @@
       <c r="C155" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E155" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3433,7 +3524,9 @@
       <c r="C156" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E156" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3447,7 +3540,9 @@
       <c r="C157" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E157" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3459,7 +3554,9 @@
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="7"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E158" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3471,37 +3568,63 @@
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="7"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E159" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="5"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="1"/>
+    <row r="160" spans="1:5" ht="18">
+      <c r="A160" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E160" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="5"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="1"/>
+    <row r="161" spans="1:5" ht="18">
+      <c r="A161" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="5"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="1"/>
+    <row r="162" spans="1:5" ht="36">
+      <c r="A162" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E162" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3802,4 +3925,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D1EF81-EED3-8E46-91C8-E3F1B9395D08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152B65B-C0DF-A042-ACEC-54A0CFF9876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BCD493-E86D-6944-B730-B8C8A93051A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="10560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7760" yWindow="9780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -891,6 +890,48 @@
   </si>
   <si>
     <t>분류는 지도학습의 하나로, 주어진 데이터 집합에 대해 이미 정의된 몇 개의 클래스로 입력데이터를 구분짓는 문제를 뜻한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판별함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적: 각 클래스에 대한 점수를 계산하여 데이터가 어떤 클래스에 속할 가능성이 높은지 판별하는 함수입니다.
+주로 사용되는 모델: 판별 함수는 확률적 분류 모델(예: 나이브 베이즈, LDA)에서 자주 사용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적: 모델이 학습한 결정 경계를 바탕으로 새로운 데이터 포인트가 어느 클래스에 속하는지 결정하는 데 사용됩니다.
+주로 사용되는 모델: 결정 함수는 특히 비확률적 분류 모델(예: SVM, 로지스틱 회귀)에서 자주 사용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discriminant Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률밀도함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우도비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선험확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후험확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,14 +1315,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="100.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
@@ -3630,28 +3671,46 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="5"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="1"/>
+    <row r="163" spans="1:5" ht="36">
+      <c r="A163" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E163" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="5"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="1"/>
+    <row r="164" spans="1:5" ht="36">
+      <c r="A164" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E164" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="5"/>
+      <c r="A165" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="B165" s="1"/>
       <c r="C165" s="7"/>
       <c r="D165" s="1"/>
@@ -3661,7 +3720,9 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="5"/>
+      <c r="A166" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7"/>
       <c r="D166" s="1"/>
@@ -3671,7 +3732,9 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="5"/>
+      <c r="A167" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="B167" s="1"/>
       <c r="C167" s="7"/>
       <c r="D167" s="1"/>
@@ -3681,7 +3744,9 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="5"/>
+      <c r="A168" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="B168" s="1"/>
       <c r="C168" s="7"/>
       <c r="D168" s="1"/>
@@ -3925,19 +3990,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D1EF81-EED3-8E46-91C8-E3F1B9395D08}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BCD493-E86D-6944-B730-B8C8A93051A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C12024-63E8-0448-AAE1-DEFBE8E63488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="9780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="218">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,6 +932,10 @@
   </si>
   <si>
     <t>후험확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가우시안 분포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,8 +1318,8 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3493,7 +3497,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="72">
+    <row r="152" spans="1:5" ht="54">
       <c r="A152" s="5" t="s">
         <v>123</v>
       </c>
@@ -3713,7 +3717,9 @@
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E165" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3725,7 +3731,9 @@
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E166" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3737,7 +3745,9 @@
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="7"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E167" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3749,17 +3759,23 @@
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="7"/>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E168" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="5"/>
+      <c r="A169" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="B169" s="1"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C12024-63E8-0448-AAE1-DEFBE8E63488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C16F6-991A-4D4A-8AE3-2B18F985FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="9780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="219">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,12 +938,16 @@
     <t>가우시안 분포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,23 +1319,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="100.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1358,11 +1362,11 @@
         <v>146</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E15" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1372,11 +1376,11 @@
         <v>146</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1386,11 +1390,11 @@
         <v>146</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -1400,11 +1404,11 @@
         <v>146</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1414,11 +1418,11 @@
         <v>146</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -1428,11 +1432,11 @@
         <v>146</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
@@ -1442,11 +1446,11 @@
         <v>146</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -1456,11 +1460,11 @@
         <v>146</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -1470,11 +1474,11 @@
         <v>146</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1484,11 +1488,11 @@
         <v>146</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -1498,11 +1502,11 @@
         <v>146</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72">
+        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1516,11 +1520,11 @@
         <v>146</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1534,11 +1538,11 @@
         <v>146</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="72">
+        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1552,11 +1556,11 @@
         <v>146</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +1571,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1577,11 +1581,11 @@
         <v>146</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" ref="E17:E48" si="1">IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1591,11 +1595,11 @@
         <v>146</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1605,11 +1609,11 @@
         <v>146</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1619,11 +1623,11 @@
         <v>146</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1633,11 +1637,11 @@
         <v>146</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1647,11 +1651,11 @@
         <v>146</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1661,11 +1665,11 @@
         <v>146</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1675,11 +1679,11 @@
         <v>146</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1689,11 +1693,11 @@
         <v>146</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1703,11 +1707,11 @@
         <v>146</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1717,11 +1721,11 @@
         <v>146</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1731,11 +1735,11 @@
         <v>146</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="144">
+        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1749,11 +1753,11 @@
         <v>146</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="108">
+        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1767,11 +1771,11 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1781,11 +1785,11 @@
         <v>146</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1795,11 +1799,11 @@
         <v>146</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1809,11 +1813,11 @@
         <v>146</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1823,11 +1827,11 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1837,11 +1841,11 @@
         <v>146</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1851,11 +1855,11 @@
         <v>146</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,11 +1869,11 @@
         <v>146</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1879,11 +1883,11 @@
         <v>146</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1893,11 +1897,11 @@
         <v>146</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1907,11 +1911,11 @@
         <v>146</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -1921,11 +1925,11 @@
         <v>146</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -1935,11 +1939,11 @@
         <v>146</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1949,11 +1953,11 @@
         <v>146</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1963,11 +1967,11 @@
         <v>146</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1977,11 +1981,11 @@
         <v>146</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1991,11 +1995,11 @@
         <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2005,11 +2009,11 @@
         <v>146</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -2019,11 +2023,11 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2033,11 +2037,11 @@
         <v>146</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" ref="E49:E80" si="2">IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -2047,11 +2051,11 @@
         <v>146</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2061,11 +2065,11 @@
         <v>146</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2075,11 +2079,11 @@
         <v>146</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -2089,11 +2093,11 @@
         <v>146</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2103,11 +2107,11 @@
         <v>60</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2117,11 +2121,11 @@
         <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2131,11 +2135,11 @@
         <v>146</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2145,11 +2149,11 @@
         <v>146</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2161,11 +2165,11 @@
         <v>146</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2175,11 +2179,11 @@
         <v>146</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2189,11 +2193,11 @@
         <v>146</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2203,11 +2207,11 @@
         <v>61</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2217,11 +2221,11 @@
         <v>61</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2231,11 +2235,11 @@
         <v>146</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2245,11 +2249,11 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2259,11 +2263,11 @@
         <v>146</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2273,11 +2277,11 @@
         <v>146</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2287,11 +2291,11 @@
         <v>146</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2301,11 +2305,11 @@
         <v>146</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2315,11 +2319,11 @@
         <v>146</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2329,11 +2333,11 @@
         <v>146</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2343,11 +2347,11 @@
         <v>146</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2357,11 +2361,11 @@
         <v>146</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2371,11 +2375,11 @@
         <v>146</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2385,11 +2389,11 @@
         <v>146</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -2399,11 +2403,11 @@
         <v>146</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -2413,11 +2417,11 @@
         <v>146</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2427,11 +2431,11 @@
         <v>146</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -2441,11 +2445,11 @@
         <v>146</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -2455,11 +2459,11 @@
         <v>146</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2469,11 +2473,11 @@
         <v>146</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2483,11 +2487,11 @@
         <v>146</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" ref="E81:E112" si="3">IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2497,11 +2501,11 @@
         <v>146</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2511,11 +2515,11 @@
         <v>146</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -2525,11 +2529,11 @@
         <v>146</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -2539,11 +2543,11 @@
         <v>146</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -2553,11 +2557,11 @@
         <v>146</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -2567,11 +2571,11 @@
         <v>146</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -2581,11 +2585,11 @@
         <v>146</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2595,11 +2599,11 @@
         <v>146</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2609,11 +2613,11 @@
         <v>146</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -2623,11 +2627,11 @@
         <v>146</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2637,11 +2641,11 @@
         <v>146</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2651,11 +2655,11 @@
         <v>146</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2665,11 +2669,11 @@
         <v>146</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2679,11 +2683,11 @@
         <v>146</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2693,11 +2697,11 @@
         <v>146</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -2707,11 +2711,11 @@
         <v>146</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -2721,11 +2725,11 @@
         <v>146</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -2735,11 +2739,11 @@
         <v>146</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -2749,11 +2753,11 @@
         <v>146</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -2763,11 +2767,11 @@
         <v>146</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -2777,11 +2781,11 @@
         <v>146</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -2791,11 +2795,11 @@
         <v>146</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -2805,11 +2809,11 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -2819,11 +2823,11 @@
         <v>146</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>111</v>
       </c>
@@ -2833,43 +2837,43 @@
         <v>146</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="7"/>
+      <c r="C107" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="D107" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>중복</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="C108" s="7"/>
       <c r="D108" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="7"/>
@@ -2877,13 +2881,13 @@
         <v>125</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="7"/>
@@ -2891,13 +2895,13 @@
         <v>125</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="7"/>
@@ -2905,13 +2909,13 @@
         <v>125</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="7"/>
@@ -2919,13 +2923,13 @@
         <v>125</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="7"/>
@@ -2933,13 +2937,13 @@
         <v>125</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f t="shared" ref="E113:E144" si="4">IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="7"/>
@@ -2947,13 +2951,13 @@
         <v>125</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="7"/>
@@ -2961,13 +2965,13 @@
         <v>125</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="7"/>
@@ -2975,27 +2979,27 @@
         <v>125</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="7"/>
       <c r="D117" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="7"/>
@@ -3003,13 +3007,13 @@
         <v>146</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="7"/>
@@ -3017,13 +3021,13 @@
         <v>146</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="7"/>
@@ -3031,13 +3035,13 @@
         <v>146</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="7"/>
@@ -3045,13 +3049,13 @@
         <v>146</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="7"/>
@@ -3059,13 +3063,13 @@
         <v>146</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="7"/>
@@ -3073,13 +3077,13 @@
         <v>146</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="7"/>
@@ -3087,27 +3091,27 @@
         <v>146</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="7"/>
       <c r="D125" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="7"/>
@@ -3115,13 +3119,13 @@
         <v>125</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="7"/>
@@ -3129,13 +3133,13 @@
         <v>125</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="7"/>
@@ -3143,63 +3147,63 @@
         <v>125</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="7"/>
@@ -3207,13 +3211,13 @@
         <v>125</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="7"/>
@@ -3221,13 +3225,13 @@
         <v>125</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="7"/>
@@ -3235,13 +3239,13 @@
         <v>125</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="7"/>
@@ -3249,13 +3253,13 @@
         <v>125</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="7"/>
@@ -3263,13 +3267,13 @@
         <v>125</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="7"/>
@@ -3277,13 +3281,13 @@
         <v>125</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="7"/>
@@ -3291,13 +3295,13 @@
         <v>125</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="7"/>
@@ -3305,297 +3309,297 @@
         <v>125</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="7"/>
+      <c r="C140" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="D140" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="7" t="s">
-        <v>166</v>
+      <c r="C141" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="C147" s="7"/>
       <c r="D147" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="7"/>
+      <c r="C148" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="D148" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>중복</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="7" t="s">
-        <v>183</v>
+      <c r="C153" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" s="1"/>
-      <c r="C156" s="2" t="s">
-        <v>189</v>
+      <c r="C156" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="342">
+        <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="C157" s="7"/>
       <c r="D157" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="7"/>
@@ -3603,117 +3607,117 @@
         <v>125</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="D159" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>209</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="7"/>
@@ -3721,13 +3725,13 @@
         <v>125</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7"/>
@@ -3735,13 +3739,13 @@
         <v>125</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="7"/>
@@ -3749,13 +3753,13 @@
         <v>125</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="7"/>
@@ -3763,241 +3767,229 @@
         <v>125</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="D169" s="1"/>
       <c r="E169" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="1"/>
       <c r="C170" s="7"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="1"/>
       <c r="C171" s="7"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="1"/>
       <c r="C172" s="7"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="1"/>
       <c r="C173" s="7"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="1"/>
       <c r="C174" s="7"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="1"/>
       <c r="C175" s="7"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="1"/>
       <c r="C176" s="7"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="1"/>
       <c r="C177" s="7"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="str">
-        <f t="shared" ref="E177:E191" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="1"/>
       <c r="C178" s="7"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="1"/>
       <c r="C179" s="7"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="1"/>
       <c r="C180" s="7"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="1"/>
       <c r="C181" s="7"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="1"/>
       <c r="C182" s="7"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="1"/>
       <c r="C183" s="7"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="1"/>
       <c r="C184" s="7"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="1"/>
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="1"/>
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="1"/>
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="1"/>
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="1"/>
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="1"/>
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="5"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C16F6-991A-4D4A-8AE3-2B18F985FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02394448-24AA-264B-8CBF-7851E2990FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="225">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,12 +942,36 @@
     <t>회귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>로지스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오즈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그우도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,20 +1346,20 @@
   <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="100.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="4"/>
+    <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1362,11 +1386,11 @@
         <v>146</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E2:E15" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1376,11 +1400,11 @@
         <v>146</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1390,11 +1414,11 @@
         <v>146</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -1404,11 +1428,11 @@
         <v>146</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1418,11 +1442,11 @@
         <v>146</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -1432,11 +1456,11 @@
         <v>146</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
@@ -1446,11 +1470,11 @@
         <v>146</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -1460,11 +1484,11 @@
         <v>146</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -1474,11 +1498,11 @@
         <v>146</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1488,11 +1512,11 @@
         <v>146</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -1502,11 +1526,11 @@
         <v>146</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1520,11 +1544,11 @@
         <v>146</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="54">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1538,11 +1562,11 @@
         <v>146</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1556,11 +1580,11 @@
         <v>146</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1571,7 +1595,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1581,11 +1605,11 @@
         <v>146</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E17:E48" si="1">IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1595,11 +1619,11 @@
         <v>146</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1609,11 +1633,11 @@
         <v>146</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1623,11 +1647,11 @@
         <v>146</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1637,11 +1661,11 @@
         <v>146</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1651,11 +1675,11 @@
         <v>146</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1665,11 +1689,11 @@
         <v>146</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1679,11 +1703,11 @@
         <v>146</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1693,11 +1717,11 @@
         <v>146</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1707,11 +1731,11 @@
         <v>146</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1721,11 +1745,11 @@
         <v>146</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1735,11 +1759,11 @@
         <v>146</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="144">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1753,11 +1777,11 @@
         <v>146</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="108">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1771,11 +1795,11 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1785,11 +1809,11 @@
         <v>146</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1799,11 +1823,11 @@
         <v>146</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1813,11 +1837,11 @@
         <v>146</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1827,11 +1851,11 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1841,11 +1865,11 @@
         <v>146</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1855,11 +1879,11 @@
         <v>146</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1869,11 +1893,11 @@
         <v>146</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1883,11 +1907,11 @@
         <v>146</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1897,11 +1921,11 @@
         <v>146</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,11 +1935,11 @@
         <v>146</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,11 +1949,11 @@
         <v>146</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -1939,11 +1963,11 @@
         <v>146</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1953,11 +1977,11 @@
         <v>146</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1967,11 +1991,11 @@
         <v>146</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -1981,11 +2005,11 @@
         <v>146</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1995,11 +2019,11 @@
         <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2009,11 +2033,11 @@
         <v>146</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -2023,11 +2047,11 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2037,11 +2061,11 @@
         <v>146</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E49:E80" si="2">IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -2051,11 +2075,11 @@
         <v>146</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2065,11 +2089,11 @@
         <v>146</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2079,11 +2103,11 @@
         <v>146</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -2093,11 +2117,11 @@
         <v>146</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2107,11 +2131,11 @@
         <v>60</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2121,11 +2145,11 @@
         <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2135,11 +2159,11 @@
         <v>146</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2149,11 +2173,11 @@
         <v>146</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2165,11 +2189,11 @@
         <v>146</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2179,11 +2203,11 @@
         <v>146</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2193,11 +2217,11 @@
         <v>146</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2207,11 +2231,11 @@
         <v>61</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2221,11 +2245,11 @@
         <v>61</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2235,11 +2259,11 @@
         <v>146</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2249,11 +2273,11 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2263,11 +2287,11 @@
         <v>146</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2277,11 +2301,11 @@
         <v>146</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2291,11 +2315,11 @@
         <v>146</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2305,11 +2329,11 @@
         <v>146</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2319,11 +2343,11 @@
         <v>146</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2333,11 +2357,11 @@
         <v>146</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2347,11 +2371,11 @@
         <v>146</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2361,11 +2385,11 @@
         <v>146</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2375,11 +2399,11 @@
         <v>146</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2389,11 +2413,11 @@
         <v>146</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -2403,11 +2427,11 @@
         <v>146</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -2417,11 +2441,11 @@
         <v>146</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2431,11 +2455,11 @@
         <v>146</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -2445,11 +2469,11 @@
         <v>146</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -2459,11 +2483,11 @@
         <v>146</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2473,11 +2497,11 @@
         <v>146</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2487,11 +2511,11 @@
         <v>146</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E81:E112" si="3">IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2501,11 +2525,11 @@
         <v>146</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2515,11 +2539,11 @@
         <v>146</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -2529,11 +2553,11 @@
         <v>146</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -2543,11 +2567,11 @@
         <v>146</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -2557,11 +2581,11 @@
         <v>146</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -2571,11 +2595,11 @@
         <v>146</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -2585,11 +2609,11 @@
         <v>146</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2599,11 +2623,11 @@
         <v>146</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2613,11 +2637,11 @@
         <v>146</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -2627,11 +2651,11 @@
         <v>146</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2641,11 +2665,11 @@
         <v>146</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2655,11 +2679,11 @@
         <v>146</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2669,11 +2693,11 @@
         <v>146</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2683,11 +2707,11 @@
         <v>146</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2697,11 +2721,11 @@
         <v>146</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -2711,11 +2735,11 @@
         <v>146</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -2725,11 +2749,11 @@
         <v>146</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -2739,11 +2763,11 @@
         <v>146</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -2753,11 +2777,11 @@
         <v>146</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -2767,11 +2791,11 @@
         <v>146</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -2781,11 +2805,11 @@
         <v>146</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -2795,11 +2819,11 @@
         <v>146</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -2809,11 +2833,11 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -2823,11 +2847,11 @@
         <v>146</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="5" t="s">
         <v>111</v>
       </c>
@@ -2837,11 +2861,11 @@
         <v>146</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18">
       <c r="A107" s="5" t="s">
         <v>124</v>
       </c>
@@ -2853,11 +2877,11 @@
         <v>125</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
         <v>126</v>
       </c>
@@ -2867,11 +2891,11 @@
         <v>125</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
         <v>129</v>
       </c>
@@ -2881,11 +2905,11 @@
         <v>125</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
         <v>130</v>
       </c>
@@ -2895,11 +2919,11 @@
         <v>125</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
         <v>131</v>
       </c>
@@ -2909,11 +2933,11 @@
         <v>125</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
         <v>132</v>
       </c>
@@ -2923,11 +2947,11 @@
         <v>125</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
         <v>133</v>
       </c>
@@ -2937,11 +2961,11 @@
         <v>125</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E113:E144" si="4">IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
         <v>134</v>
       </c>
@@ -2951,11 +2975,11 @@
         <v>125</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
         <v>135</v>
       </c>
@@ -2965,11 +2989,11 @@
         <v>125</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
         <v>136</v>
       </c>
@@ -2979,11 +3003,11 @@
         <v>125</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
         <v>138</v>
       </c>
@@ -2993,11 +3017,11 @@
         <v>146</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
         <v>139</v>
       </c>
@@ -3007,11 +3031,11 @@
         <v>146</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
         <v>140</v>
       </c>
@@ -3021,11 +3045,11 @@
         <v>146</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
         <v>141</v>
       </c>
@@ -3035,11 +3059,11 @@
         <v>146</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
         <v>142</v>
       </c>
@@ -3049,11 +3073,11 @@
         <v>146</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
         <v>143</v>
       </c>
@@ -3063,11 +3087,11 @@
         <v>146</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
         <v>144</v>
       </c>
@@ -3077,11 +3101,11 @@
         <v>146</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
         <v>145</v>
       </c>
@@ -3091,11 +3115,11 @@
         <v>146</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
         <v>147</v>
       </c>
@@ -3105,11 +3129,11 @@
         <v>125</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
         <v>148</v>
       </c>
@@ -3119,11 +3143,11 @@
         <v>125</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
         <v>149</v>
       </c>
@@ -3133,11 +3157,11 @@
         <v>125</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
         <v>150</v>
       </c>
@@ -3147,11 +3171,11 @@
         <v>125</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="36">
       <c r="A129" s="5" t="s">
         <v>151</v>
       </c>
@@ -3165,11 +3189,11 @@
         <v>125</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18">
       <c r="A130" s="5" t="s">
         <v>152</v>
       </c>
@@ -3183,11 +3207,11 @@
         <v>125</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
         <v>153</v>
       </c>
@@ -3197,11 +3221,11 @@
         <v>125</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
         <v>154</v>
       </c>
@@ -3211,11 +3235,11 @@
         <v>125</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
         <v>155</v>
       </c>
@@ -3225,11 +3249,11 @@
         <v>125</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
         <v>156</v>
       </c>
@@ -3239,11 +3263,11 @@
         <v>125</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
         <v>157</v>
       </c>
@@ -3253,11 +3277,11 @@
         <v>125</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
         <v>158</v>
       </c>
@@ -3267,11 +3291,11 @@
         <v>125</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
         <v>159</v>
       </c>
@@ -3281,11 +3305,11 @@
         <v>125</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
         <v>160</v>
       </c>
@@ -3295,11 +3319,11 @@
         <v>125</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
         <v>161</v>
       </c>
@@ -3309,11 +3333,11 @@
         <v>125</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="54">
       <c r="A140" s="5" t="s">
         <v>165</v>
       </c>
@@ -3325,11 +3349,11 @@
         <v>125</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="54">
       <c r="A141" s="5" t="s">
         <v>127</v>
       </c>
@@ -3341,11 +3365,11 @@
         <v>125</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="18">
       <c r="A142" s="5" t="s">
         <v>128</v>
       </c>
@@ -3357,11 +3381,11 @@
         <v>125</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="54">
       <c r="A143" s="5" t="s">
         <v>162</v>
       </c>
@@ -3373,11 +3397,11 @@
         <v>125</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="54">
       <c r="A144" s="5" t="s">
         <v>163</v>
       </c>
@@ -3389,11 +3413,11 @@
         <v>125</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18">
       <c r="A145" s="5" t="s">
         <v>164</v>
       </c>
@@ -3405,11 +3429,11 @@
         <v>125</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="54">
       <c r="A146" s="5" t="s">
         <v>172</v>
       </c>
@@ -3421,11 +3445,11 @@
         <v>125</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="5" t="s">
         <v>174</v>
       </c>
@@ -3435,11 +3459,11 @@
         <v>125</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18">
       <c r="A148" s="5" t="s">
         <v>175</v>
       </c>
@@ -3451,11 +3475,11 @@
         <v>125</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="36">
       <c r="A149" s="5" t="s">
         <v>176</v>
       </c>
@@ -3467,11 +3491,11 @@
         <v>125</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="36">
       <c r="A150" s="5" t="s">
         <v>179</v>
       </c>
@@ -3483,11 +3507,11 @@
         <v>125</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="54">
       <c r="A151" s="5" t="s">
         <v>123</v>
       </c>
@@ -3499,11 +3523,11 @@
         <v>125</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="36">
       <c r="A152" s="5" t="s">
         <v>180</v>
       </c>
@@ -3515,11 +3539,11 @@
         <v>125</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="18">
       <c r="A153" s="5" t="s">
         <v>184</v>
       </c>
@@ -3531,11 +3555,11 @@
         <v>125</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18">
       <c r="A154" s="5" t="s">
         <v>185</v>
       </c>
@@ -3547,11 +3571,11 @@
         <v>125</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="36">
       <c r="A155" s="5" t="s">
         <v>186</v>
       </c>
@@ -3563,11 +3587,11 @@
         <v>125</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="313.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="342">
       <c r="A156" s="5" t="s">
         <v>190</v>
       </c>
@@ -3579,11 +3603,11 @@
         <v>125</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
         <v>192</v>
       </c>
@@ -3593,11 +3617,11 @@
         <v>125</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
         <v>193</v>
       </c>
@@ -3607,11 +3631,11 @@
         <v>125</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18">
       <c r="A159" s="5" t="s">
         <v>196</v>
       </c>
@@ -3625,11 +3649,11 @@
         <v>125</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="18">
       <c r="A160" s="5" t="s">
         <v>199</v>
       </c>
@@ -3643,11 +3667,11 @@
         <v>125</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="36">
       <c r="A161" s="5" t="s">
         <v>204</v>
       </c>
@@ -3661,11 +3685,11 @@
         <v>125</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="36">
       <c r="A162" s="5" t="s">
         <v>208</v>
       </c>
@@ -3679,11 +3703,11 @@
         <v>125</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="36">
       <c r="A163" s="5" t="s">
         <v>207</v>
       </c>
@@ -3697,11 +3721,11 @@
         <v>125</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
         <v>213</v>
       </c>
@@ -3711,11 +3735,11 @@
         <v>125</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
         <v>214</v>
       </c>
@@ -3725,11 +3749,11 @@
         <v>125</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
         <v>215</v>
       </c>
@@ -3739,11 +3763,11 @@
         <v>125</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
         <v>216</v>
       </c>
@@ -3753,11 +3777,11 @@
         <v>125</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
         <v>217</v>
       </c>
@@ -3767,11 +3791,11 @@
         <v>125</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
         <v>218</v>
       </c>
@@ -3779,217 +3803,229 @@
       <c r="C169" s="7"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="B170" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C170" s="7"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B171" s="1"/>
       <c r="C171" s="7"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="B172" s="1"/>
       <c r="C172" s="7"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="B173" s="1"/>
       <c r="C173" s="7"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="B174" s="1"/>
       <c r="C174" s="7"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="5"/>
       <c r="B175" s="1"/>
       <c r="C175" s="7"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="5"/>
       <c r="B176" s="1"/>
       <c r="C176" s="7"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="5"/>
       <c r="B177" s="1"/>
       <c r="C177" s="7"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E177:E190" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="5"/>
       <c r="B178" s="1"/>
       <c r="C178" s="7"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="5"/>
       <c r="B179" s="1"/>
       <c r="C179" s="7"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="5"/>
       <c r="B180" s="1"/>
       <c r="C180" s="7"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="5"/>
       <c r="B181" s="1"/>
       <c r="C181" s="7"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="5"/>
       <c r="B182" s="1"/>
       <c r="C182" s="7"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="5"/>
       <c r="B183" s="1"/>
       <c r="C183" s="7"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="5"/>
       <c r="B184" s="1"/>
       <c r="C184" s="7"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="5"/>
       <c r="B185" s="1"/>
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="5"/>
       <c r="B186" s="1"/>
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="5"/>
       <c r="B187" s="1"/>
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="5"/>
       <c r="B188" s="1"/>
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="5"/>
       <c r="B189" s="1"/>
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="5"/>
       <c r="B190" s="1"/>
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02394448-24AA-264B-8CBF-7851E2990FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03425C21-81F3-4748-9D27-39750E6B1748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="232">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -964,6 +964,34 @@
   </si>
   <si>
     <t>로그우도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO-9660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1375,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
+      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3801,7 +3829,9 @@
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3815,7 +3845,9 @@
         <v>222</v>
       </c>
       <c r="C170" s="7"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E170" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3827,7 +3859,9 @@
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="7"/>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3839,7 +3873,9 @@
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="7"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E172" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3851,7 +3887,9 @@
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="7"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E173" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3863,77 +3901,107 @@
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="7"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E174" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="5"/>
+      <c r="A175" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="B175" s="1"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E175" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="5"/>
+      <c r="A176" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B176" s="1"/>
       <c r="C176" s="7"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E176" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="5"/>
+      <c r="A177" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="B177" s="1"/>
       <c r="C177" s="7"/>
-      <c r="D177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E177" s="1" t="str">
         <f t="shared" ref="E177:E190" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="5"/>
+      <c r="A178" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="B178" s="1"/>
       <c r="C178" s="7"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E178" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="5"/>
+      <c r="A179" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="B179" s="1"/>
       <c r="C179" s="7"/>
-      <c r="D179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E179" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="5"/>
+      <c r="A180" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="B180" s="1"/>
       <c r="C180" s="7"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E180" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="5"/>
+      <c r="A181" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="B181" s="1"/>
       <c r="C181" s="7"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E181" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03425C21-81F3-4748-9D27-39750E6B1748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C2A7B-D5DB-0344-8985-AF36912401E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="235">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t>Minix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프롬프트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSIX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1374,8 +1386,8 @@
   <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4008,17 +4020,25 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="5"/>
-      <c r="B182" s="1"/>
+      <c r="A182" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C182" s="7"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="5"/>
+      <c r="A183" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B183" s="1"/>
       <c r="C183" s="7"/>
       <c r="D183" s="1"/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C2A7B-D5DB-0344-8985-AF36912401E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA47C73-9B5A-C044-91F9-E4BCAE4334CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1387,7 +1387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E67" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E70" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E77" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4048,53 +4048,63 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="5"/>
+      <c r="A184" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="B184" s="1"/>
       <c r="C184" s="7"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="5"/>
+      <c r="A185" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="B185" s="1"/>
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="5"/>
+      <c r="A186" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B186" s="1"/>
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="5"/>
+      <c r="A187" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="B187" s="1"/>
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="5"/>
+      <c r="A188" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="B188" s="1"/>
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="189" spans="1:5">

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA47C73-9B5A-C044-91F9-E4BCAE4334CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD308E40-C802-A445-8354-712752719D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="237">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,6 +1004,14 @@
   </si>
   <si>
     <t>POSIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극소점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역극소점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,11 +1391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3002,7 +3010,7 @@
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" ref="E113:E144" si="4">IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
-        <v/>
+        <v>중복</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3959,7 +3967,7 @@
         <v>146</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f t="shared" ref="E177:E190" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <f t="shared" ref="E177:E206" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>
@@ -4108,7 +4116,9 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="5"/>
+      <c r="A189" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B189" s="1"/>
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
@@ -4118,11 +4128,175 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="5"/>
+      <c r="A190" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="B190" s="1"/>
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>중복</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="5"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="5"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="5"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="5"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="5"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="5"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="5"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="5"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="5"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="5"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="5"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="5"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="5"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="5"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="5"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD308E40-C802-A445-8354-712752719D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F857025-88E8-4EB2-AE99-1AAA95628E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="254">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,11 +1007,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이산수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Minimum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>극소점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Minimum Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>전역극소점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Minimum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 함수 f(x)의 특정 지점에서 함수값이 주변의 값보다 작을 때 해당 지점을 말합니다. 극소점은 전역극소점 또는 지역극소점으로 세분화됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역극소점은 함수 전체에서 가장 작은 함수값을 갖는 점입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역극소점은 함수가 특정 구간에서만 가장 작은 값일 때 해당 지점을 의미합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학, 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrete mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrete : 이산적인, 분리된
+수학 구조에 대해 연구하는 학문으로, 연속되지 않는 공간을 다룬다. 즉, 실수와 같이 연속적인 성질이 있는 대상이 아닌, 정수나 그래프, 논리 연산 같이 서로 구분되는 값을 가지는 대상을 연구한다. (https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%82%B0%EC%88%98%ED%95%99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pseudocode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pseudo : 유사한, 가짜의
+擬似code : 비길 의, 닮을 사
+알고리즘 또는 논리를 표현하는 방법 중 하나. 자연어를 사용하면서 프로그래밍 언어와 유사한 형식, 즉 프로그래밍 언어의 문법에 따라 작성한 코드. 미술에서의 스케치와 비슷한 느낌. 진짜 코드와 달리 컴퓨터에서 실행할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끊이지 않고 계속되거나 지속되는 것. 해석학 등에서 다루는 실수값이 바로 연속적인 값이다.
+https://ko.wikipedia.org/wiki/%EC%97%B0%EC%86%8D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1091,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,23 +1463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="100.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1434,11 +1506,11 @@
         <v>146</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E15" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1448,11 +1520,11 @@
         <v>146</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1462,11 +1534,11 @@
         <v>146</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -1476,11 +1548,11 @@
         <v>146</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1490,11 +1562,11 @@
         <v>146</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -1504,11 +1576,11 @@
         <v>146</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
@@ -1518,11 +1590,11 @@
         <v>146</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -1532,11 +1604,11 @@
         <v>146</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -1546,11 +1618,11 @@
         <v>146</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1560,11 +1632,11 @@
         <v>146</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -1574,11 +1646,11 @@
         <v>146</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72">
+        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1592,11 +1664,11 @@
         <v>146</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1610,11 +1682,11 @@
         <v>146</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="72">
+        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1628,11 +1700,11 @@
         <v>146</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1643,7 +1715,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1653,11 +1725,11 @@
         <v>146</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" ref="E17:E48" si="1">IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1667,11 +1739,11 @@
         <v>146</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1681,11 +1753,11 @@
         <v>146</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1695,11 +1767,11 @@
         <v>146</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1709,11 +1781,11 @@
         <v>146</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1723,11 +1795,11 @@
         <v>146</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1737,11 +1809,11 @@
         <v>146</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1751,11 +1823,11 @@
         <v>146</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1765,11 +1837,11 @@
         <v>146</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1779,11 +1851,11 @@
         <v>146</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1793,11 +1865,11 @@
         <v>146</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1807,11 +1879,11 @@
         <v>146</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="144">
+        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1825,11 +1897,11 @@
         <v>146</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="108">
+        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1843,11 +1915,11 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1857,11 +1929,11 @@
         <v>146</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1871,11 +1943,11 @@
         <v>146</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,11 +1957,11 @@
         <v>146</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1899,11 +1971,11 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1913,11 +1985,11 @@
         <v>146</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1927,11 +1999,11 @@
         <v>146</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1941,11 +2013,11 @@
         <v>146</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,11 +2027,11 @@
         <v>146</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1969,11 +2041,11 @@
         <v>146</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,11 +2055,11 @@
         <v>146</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,11 +2069,11 @@
         <v>146</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -2011,11 +2083,11 @@
         <v>146</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2025,11 +2097,11 @@
         <v>146</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2039,11 +2111,11 @@
         <v>146</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2053,11 +2125,11 @@
         <v>146</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -2067,11 +2139,11 @@
         <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2081,11 +2153,11 @@
         <v>146</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -2095,11 +2167,11 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2109,11 +2181,11 @@
         <v>146</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" ref="E49:E80" si="2">IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -2123,11 +2195,11 @@
         <v>146</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2137,11 +2209,11 @@
         <v>146</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2151,11 +2223,11 @@
         <v>146</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -2165,11 +2237,11 @@
         <v>146</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2179,11 +2251,11 @@
         <v>60</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2193,11 +2265,11 @@
         <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2207,11 +2279,11 @@
         <v>146</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2221,11 +2293,11 @@
         <v>146</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2237,11 +2309,11 @@
         <v>146</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,11 +2323,11 @@
         <v>146</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2265,11 +2337,11 @@
         <v>146</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2279,11 +2351,11 @@
         <v>61</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2293,11 +2365,11 @@
         <v>61</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2307,11 +2379,11 @@
         <v>146</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2321,11 +2393,11 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2335,11 +2407,11 @@
         <v>146</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2349,11 +2421,11 @@
         <v>146</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2363,11 +2435,11 @@
         <v>146</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2377,11 +2449,11 @@
         <v>146</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2391,11 +2463,11 @@
         <v>146</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2405,11 +2477,11 @@
         <v>146</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2419,11 +2491,11 @@
         <v>146</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2433,11 +2505,11 @@
         <v>146</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2447,11 +2519,11 @@
         <v>146</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2461,11 +2533,11 @@
         <v>146</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -2475,11 +2547,11 @@
         <v>146</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -2489,11 +2561,11 @@
         <v>146</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2503,11 +2575,11 @@
         <v>146</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -2517,11 +2589,11 @@
         <v>146</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -2531,11 +2603,11 @@
         <v>146</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2545,11 +2617,11 @@
         <v>146</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2559,11 +2631,11 @@
         <v>146</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" ref="E81:E112" si="3">IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2573,11 +2645,11 @@
         <v>146</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2587,11 +2659,11 @@
         <v>146</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -2601,11 +2673,11 @@
         <v>146</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -2615,11 +2687,11 @@
         <v>146</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -2629,11 +2701,11 @@
         <v>146</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -2643,11 +2715,11 @@
         <v>146</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -2657,11 +2729,11 @@
         <v>146</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2671,11 +2743,11 @@
         <v>146</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2685,11 +2757,11 @@
         <v>146</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -2699,11 +2771,11 @@
         <v>146</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2713,11 +2785,11 @@
         <v>146</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2727,11 +2799,11 @@
         <v>146</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2741,11 +2813,11 @@
         <v>146</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2755,11 +2827,11 @@
         <v>146</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2769,11 +2841,11 @@
         <v>146</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -2783,11 +2855,11 @@
         <v>146</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -2797,11 +2869,11 @@
         <v>146</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -2811,11 +2883,11 @@
         <v>146</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -2825,11 +2897,11 @@
         <v>146</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -2839,11 +2911,11 @@
         <v>146</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -2853,11 +2925,11 @@
         <v>146</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -2867,11 +2939,11 @@
         <v>146</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -2881,11 +2953,11 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -2895,11 +2967,11 @@
         <v>146</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>111</v>
       </c>
@@ -2909,11 +2981,11 @@
         <v>146</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>124</v>
       </c>
@@ -2925,11 +2997,11 @@
         <v>125</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>126</v>
       </c>
@@ -2939,11 +3011,11 @@
         <v>125</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>129</v>
       </c>
@@ -2953,11 +3025,11 @@
         <v>125</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>130</v>
       </c>
@@ -2967,11 +3039,11 @@
         <v>125</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>131</v>
       </c>
@@ -2981,11 +3053,11 @@
         <v>125</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>132</v>
       </c>
@@ -2995,55 +3067,67 @@
         <v>125</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E113" s="1" t="str">
-        <f t="shared" ref="E113:E144" si="4">IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
-        <v>중복</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="5" t="s">
+      <c r="B114" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="7"/>
@@ -3051,41 +3135,41 @@
         <v>125</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="7"/>
       <c r="D117" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="7"/>
       <c r="D118" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="7"/>
@@ -3093,13 +3177,13 @@
         <v>146</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="7"/>
@@ -3107,13 +3191,13 @@
         <v>146</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="7"/>
@@ -3121,13 +3205,13 @@
         <v>146</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="7"/>
@@ -3135,13 +3219,13 @@
         <v>146</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="7"/>
@@ -3149,13 +3233,13 @@
         <v>146</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="7"/>
@@ -3163,41 +3247,41 @@
         <v>146</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="7"/>
       <c r="D125" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="7"/>
       <c r="D126" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="7"/>
@@ -3205,13 +3289,13 @@
         <v>125</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="7"/>
@@ -3219,77 +3303,77 @@
         <v>125</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E129" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E129" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="18">
-      <c r="A130" s="5" t="s">
+      <c r="D131" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E131" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E130" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="5" t="s">
+      <c r="D132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E131" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E132" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="7"/>
@@ -3297,13 +3381,13 @@
         <v>125</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="7"/>
@@ -3311,13 +3395,13 @@
         <v>125</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="7"/>
@@ -3325,13 +3409,13 @@
         <v>125</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="7"/>
@@ -3339,13 +3423,13 @@
         <v>125</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="7"/>
@@ -3353,13 +3437,13 @@
         <v>125</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="7"/>
@@ -3367,13 +3451,13 @@
         <v>125</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="7"/>
@@ -3381,429 +3465,429 @@
         <v>125</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E140" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="7" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E140" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="54">
-      <c r="A141" s="5" t="s">
+      <c r="D142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E141" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="18">
-      <c r="A142" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E142" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="54">
-      <c r="A143" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="18">
+        <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E146" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="5" t="s">
+      <c r="D148" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E148" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E147" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="18">
-      <c r="A148" s="5" t="s">
+      <c r="B149" s="1"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E149" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E148" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="36">
-      <c r="A149" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E149" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="36">
-      <c r="A150" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="54">
+        <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="36">
+        <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E152" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E153" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E152" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="18">
-      <c r="A153" s="5" t="s">
+      <c r="D154" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E154" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E153" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="18">
-      <c r="A154" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E154" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="36">
-      <c r="A155" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E155" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E156" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E155" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="342">
-      <c r="A156" s="5" t="s">
+      <c r="D157" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E157" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="7" t="s">
+      <c r="B158" s="1"/>
+      <c r="C158" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E156" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="5" t="s">
+      <c r="D158" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E158" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E157" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="5" t="s">
+      <c r="B159" s="1"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E159" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E158" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="18">
-      <c r="A159" s="5" t="s">
+      <c r="B160" s="1"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E160" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E159" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="18">
-      <c r="A160" s="5" t="s">
+      <c r="D161" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E161" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E160" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="36">
-      <c r="A161" s="5" t="s">
+      <c r="D162" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E162" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E161" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="36">
-      <c r="A162" s="5" t="s">
+      <c r="D163" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E162" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="36">
-      <c r="A163" s="5" t="s">
+      <c r="D164" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E163" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="5" t="s">
+      <c r="D165" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165" s="1" t="str">
+        <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E164" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E165" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="7"/>
@@ -3811,13 +3895,13 @@
         <v>125</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="7"/>
@@ -3825,13 +3909,13 @@
         <v>125</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="7"/>
@@ -3839,13 +3923,13 @@
         <v>125</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="7"/>
@@ -3853,29 +3937,27 @@
         <v>125</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B170" s="1"/>
       <c r="C170" s="7"/>
       <c r="D170" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="7"/>
@@ -3883,27 +3965,29 @@
         <v>125</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B172" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C172" s="7"/>
       <c r="D172" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="7"/>
@@ -3911,13 +3995,13 @@
         <v>125</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="7"/>
@@ -3925,41 +4009,41 @@
         <v>125</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="7"/>
       <c r="D175" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="7"/>
       <c r="D176" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="7"/>
@@ -3967,13 +4051,13 @@
         <v>146</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f t="shared" ref="E177:E206" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="7"/>
@@ -3981,13 +4065,13 @@
         <v>146</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="7"/>
@@ -3995,13 +4079,13 @@
         <v>146</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="7"/>
@@ -4009,13 +4093,13 @@
         <v>146</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="7"/>
@@ -4023,281 +4107,297 @@
         <v>146</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B182" s="1"/>
       <c r="C182" s="7"/>
       <c r="D182" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="7"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E183" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B184" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C184" s="7"/>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E184" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>중복</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>중복</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
+        <v>중복</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
         <v>중복</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="E191" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="5"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="1"/>
+        <f>IF(COUNTIF($A:$A,$A191)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E192" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="5"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="1"/>
+        <f>IF(COUNTIF($A:$A,$A192)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E193" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A193)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="1"/>
       <c r="C194" s="7"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A194)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="1"/>
       <c r="C195" s="7"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A195)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="1"/>
       <c r="C196" s="7"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A196)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="1"/>
       <c r="C197" s="7"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A197)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="1"/>
       <c r="C198" s="7"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A198)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="1"/>
       <c r="C199" s="7"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A199)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="1"/>
       <c r="C200" s="7"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A200)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="1"/>
       <c r="C201" s="7"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A201)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="1"/>
       <c r="C202" s="7"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A202)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="1"/>
       <c r="C203" s="7"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A203)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="1"/>
       <c r="C204" s="7"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <f>IF(COUNTIF($A:$A,$A204)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="1"/>
       <c r="C205" s="7"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="5"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(COUNTIF($A:$A,$A205)&gt;1, "중복", "")</f>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F857025-88E8-4EB2-AE99-1AAA95628E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231FF999-839A-724B-A0A2-4A6C0ECDEF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="257">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,12 +1086,24 @@
     <t>continuous</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>스키마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,19 +1479,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="100.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="4"/>
+    <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1506,11 +1518,11 @@
         <v>146</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E2:E15" si="0">IF(COUNTIF($A:$A,$A2)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1520,11 +1532,11 @@
         <v>146</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A3)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1534,11 +1546,11 @@
         <v>146</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A4)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -1548,11 +1560,11 @@
         <v>146</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A5)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1562,11 +1574,11 @@
         <v>146</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A6)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -1576,11 +1588,11 @@
         <v>146</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A7)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
@@ -1590,11 +1602,11 @@
         <v>146</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A8)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -1604,11 +1616,11 @@
         <v>146</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A9)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -1618,11 +1630,11 @@
         <v>146</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A10)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1632,11 +1644,11 @@
         <v>146</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A11)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -1646,11 +1658,11 @@
         <v>146</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A12)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1664,11 +1676,11 @@
         <v>146</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A13)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="54">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1682,11 +1694,11 @@
         <v>146</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A14)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1700,11 +1712,11 @@
         <v>146</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A15)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1715,7 +1727,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1725,11 +1737,11 @@
         <v>146</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E17:E48" si="1">IF(COUNTIF($A:$A,$A17)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1739,11 +1751,11 @@
         <v>146</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A18)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1753,11 +1765,11 @@
         <v>146</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A19)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1767,11 +1779,11 @@
         <v>146</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A20)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1781,11 +1793,11 @@
         <v>146</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A21)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1795,11 +1807,11 @@
         <v>146</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A22)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1809,11 +1821,11 @@
         <v>146</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A23)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1823,11 +1835,11 @@
         <v>146</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A24)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1837,11 +1849,11 @@
         <v>146</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A25)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1851,11 +1863,11 @@
         <v>146</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A26)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1865,11 +1877,11 @@
         <v>146</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A27)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1879,11 +1891,11 @@
         <v>146</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A28)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="144">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1897,11 +1909,11 @@
         <v>146</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A29)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="108">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1915,11 +1927,11 @@
         <v>146</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A30)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1929,11 +1941,11 @@
         <v>146</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A31)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1943,11 +1955,11 @@
         <v>146</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A32)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,11 +1969,11 @@
         <v>146</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A33)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1971,11 +1983,11 @@
         <v>146</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A34)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1985,11 +1997,11 @@
         <v>146</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A35)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,11 +2011,11 @@
         <v>146</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A36)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -2013,11 +2025,11 @@
         <v>146</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A37)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,11 +2039,11 @@
         <v>146</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A38)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -2041,11 +2053,11 @@
         <v>146</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A39)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,11 +2067,11 @@
         <v>146</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A40)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -2069,11 +2081,11 @@
         <v>146</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A41)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -2083,11 +2095,11 @@
         <v>146</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A42)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2097,11 +2109,11 @@
         <v>146</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A43)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2111,11 +2123,11 @@
         <v>146</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A44)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2125,11 +2137,11 @@
         <v>146</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A45)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,11 +2151,11 @@
         <v>146</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A46)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2153,11 +2165,11 @@
         <v>146</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A47)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -2167,11 +2179,11 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A48)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2181,11 +2193,11 @@
         <v>146</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E49:E80" si="2">IF(COUNTIF($A:$A,$A49)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -2195,11 +2207,11 @@
         <v>146</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A50)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2209,11 +2221,11 @@
         <v>146</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A51)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2223,11 +2235,11 @@
         <v>146</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A52)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -2237,11 +2249,11 @@
         <v>146</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A53)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2251,11 +2263,11 @@
         <v>60</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A54)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2265,11 +2277,11 @@
         <v>60</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A55)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2279,11 +2291,11 @@
         <v>146</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A56)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2293,11 +2305,11 @@
         <v>146</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A57)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2309,11 +2321,11 @@
         <v>146</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A58)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2323,11 +2335,11 @@
         <v>146</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A59)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2337,11 +2349,11 @@
         <v>146</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A60)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2351,11 +2363,11 @@
         <v>61</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A61)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2365,11 +2377,11 @@
         <v>61</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A62)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2379,11 +2391,11 @@
         <v>146</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A63)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2393,11 +2405,11 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A64)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2407,11 +2419,11 @@
         <v>146</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A65)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2421,11 +2433,11 @@
         <v>146</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A66)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2435,11 +2447,11 @@
         <v>146</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A67)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2449,11 +2461,11 @@
         <v>146</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A68)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2463,11 +2475,11 @@
         <v>146</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A69)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2477,11 +2489,11 @@
         <v>146</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A70)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2491,11 +2503,11 @@
         <v>146</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A71)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2505,11 +2517,11 @@
         <v>146</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A72)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2519,11 +2531,11 @@
         <v>146</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A73)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2533,11 +2545,11 @@
         <v>146</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A74)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -2547,11 +2559,11 @@
         <v>146</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A75)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -2561,11 +2573,11 @@
         <v>146</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A76)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2575,11 +2587,11 @@
         <v>146</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A77)&gt;1, "중복", "")</f>
+        <f t="shared" si="2"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -2589,11 +2601,11 @@
         <v>146</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A78)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -2603,11 +2615,11 @@
         <v>146</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A79)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2617,11 +2629,11 @@
         <v>146</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A80)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2631,11 +2643,11 @@
         <v>146</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E81:E112" si="3">IF(COUNTIF($A:$A,$A81)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2645,11 +2657,11 @@
         <v>146</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A82)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2659,11 +2671,11 @@
         <v>146</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A83)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -2673,11 +2685,11 @@
         <v>146</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A84)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -2687,11 +2699,11 @@
         <v>146</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A85)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -2701,11 +2713,11 @@
         <v>146</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A86)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -2715,11 +2727,11 @@
         <v>146</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A87)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -2729,11 +2741,11 @@
         <v>146</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A88)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2743,11 +2755,11 @@
         <v>146</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A89)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2757,11 +2769,11 @@
         <v>146</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A90)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -2771,11 +2783,11 @@
         <v>146</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A91)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2785,11 +2797,11 @@
         <v>146</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A92)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2799,11 +2811,11 @@
         <v>146</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A93)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2813,11 +2825,11 @@
         <v>146</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A94)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2827,11 +2839,11 @@
         <v>146</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A95)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2841,11 +2853,11 @@
         <v>146</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A96)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -2855,11 +2867,11 @@
         <v>146</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A97)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -2869,11 +2881,11 @@
         <v>146</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A98)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -2883,11 +2895,11 @@
         <v>146</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A99)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -2897,11 +2909,11 @@
         <v>146</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A100)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -2911,11 +2923,11 @@
         <v>146</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A101)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -2925,11 +2937,11 @@
         <v>146</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A102)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -2939,11 +2951,11 @@
         <v>146</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A103)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -2953,11 +2965,11 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A104)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -2967,11 +2979,11 @@
         <v>146</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A105)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="5" t="s">
         <v>111</v>
       </c>
@@ -2981,11 +2993,11 @@
         <v>146</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A106)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18">
       <c r="A107" s="5" t="s">
         <v>124</v>
       </c>
@@ -2997,11 +3009,11 @@
         <v>125</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A107)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
         <v>126</v>
       </c>
@@ -3011,11 +3023,11 @@
         <v>125</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A108)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
         <v>129</v>
       </c>
@@ -3025,11 +3037,11 @@
         <v>125</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A109)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
         <v>130</v>
       </c>
@@ -3039,11 +3051,11 @@
         <v>125</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A110)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
         <v>131</v>
       </c>
@@ -3053,11 +3065,11 @@
         <v>125</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A111)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
         <v>132</v>
       </c>
@@ -3067,11 +3079,11 @@
         <v>125</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A112)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="36">
       <c r="A113" s="5" t="s">
         <v>237</v>
       </c>
@@ -3085,11 +3097,11 @@
         <v>125</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E113:E144" si="4">IF(COUNTIF($A:$A,$A113)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18">
       <c r="A114" s="5" t="s">
         <v>133</v>
       </c>
@@ -3103,11 +3115,11 @@
         <v>125</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A114)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18">
       <c r="A115" s="5" t="s">
         <v>239</v>
       </c>
@@ -3121,11 +3133,11 @@
         <v>125</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A115)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
         <v>134</v>
       </c>
@@ -3135,11 +3147,11 @@
         <v>125</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A116)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="5" t="s">
         <v>135</v>
       </c>
@@ -3149,11 +3161,11 @@
         <v>125</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A117)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
         <v>136</v>
       </c>
@@ -3163,11 +3175,11 @@
         <v>125</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A118)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
         <v>138</v>
       </c>
@@ -3177,11 +3189,11 @@
         <v>146</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A119)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
         <v>139</v>
       </c>
@@ -3191,11 +3203,11 @@
         <v>146</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A120)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
         <v>140</v>
       </c>
@@ -3205,11 +3217,11 @@
         <v>146</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A121)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
         <v>141</v>
       </c>
@@ -3219,11 +3231,11 @@
         <v>146</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A122)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
         <v>142</v>
       </c>
@@ -3233,11 +3245,11 @@
         <v>146</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A123)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
         <v>143</v>
       </c>
@@ -3247,11 +3259,11 @@
         <v>146</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A124)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
         <v>144</v>
       </c>
@@ -3261,11 +3273,11 @@
         <v>146</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A125)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
         <v>145</v>
       </c>
@@ -3275,11 +3287,11 @@
         <v>146</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A126)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
         <v>147</v>
       </c>
@@ -3289,11 +3301,11 @@
         <v>125</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A127)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="5" t="s">
         <v>148</v>
       </c>
@@ -3303,11 +3315,11 @@
         <v>125</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A128)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
         <v>149</v>
       </c>
@@ -3317,11 +3329,11 @@
         <v>125</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A129)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
         <v>150</v>
       </c>
@@ -3331,11 +3343,11 @@
         <v>125</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A130)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="36">
       <c r="A131" s="5" t="s">
         <v>151</v>
       </c>
@@ -3349,11 +3361,11 @@
         <v>125</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A131)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18">
       <c r="A132" s="5" t="s">
         <v>152</v>
       </c>
@@ -3367,11 +3379,11 @@
         <v>125</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A132)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
         <v>153</v>
       </c>
@@ -3381,11 +3393,11 @@
         <v>125</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A133)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
         <v>154</v>
       </c>
@@ -3395,11 +3407,11 @@
         <v>125</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A134)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
         <v>155</v>
       </c>
@@ -3409,11 +3421,11 @@
         <v>125</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A135)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
         <v>156</v>
       </c>
@@ -3423,11 +3435,11 @@
         <v>125</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A136)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
         <v>157</v>
       </c>
@@ -3437,11 +3449,11 @@
         <v>125</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A137)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
         <v>158</v>
       </c>
@@ -3451,11 +3463,11 @@
         <v>125</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A138)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
         <v>159</v>
       </c>
@@ -3465,11 +3477,11 @@
         <v>125</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A139)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
         <v>160</v>
       </c>
@@ -3479,11 +3491,11 @@
         <v>125</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A140)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
         <v>161</v>
       </c>
@@ -3493,11 +3505,11 @@
         <v>125</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A141)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="54">
       <c r="A142" s="5" t="s">
         <v>165</v>
       </c>
@@ -3509,11 +3521,11 @@
         <v>125</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A142)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="54">
       <c r="A143" s="5" t="s">
         <v>127</v>
       </c>
@@ -3525,11 +3537,11 @@
         <v>125</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A143)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18">
       <c r="A144" s="5" t="s">
         <v>128</v>
       </c>
@@ -3541,11 +3553,11 @@
         <v>125</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A144)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="54">
       <c r="A145" s="5" t="s">
         <v>162</v>
       </c>
@@ -3557,11 +3569,11 @@
         <v>125</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="54">
       <c r="A146" s="5" t="s">
         <v>163</v>
       </c>
@@ -3573,11 +3585,11 @@
         <v>125</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A146)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="18">
       <c r="A147" s="5" t="s">
         <v>164</v>
       </c>
@@ -3589,11 +3601,11 @@
         <v>125</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A147)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="54">
       <c r="A148" s="5" t="s">
         <v>172</v>
       </c>
@@ -3605,11 +3617,11 @@
         <v>125</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A148)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
         <v>174</v>
       </c>
@@ -3619,11 +3631,11 @@
         <v>125</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A149)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18">
       <c r="A150" s="5" t="s">
         <v>175</v>
       </c>
@@ -3635,11 +3647,11 @@
         <v>125</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A150)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="36">
       <c r="A151" s="5" t="s">
         <v>176</v>
       </c>
@@ -3651,11 +3663,11 @@
         <v>125</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A151)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="36">
       <c r="A152" s="5" t="s">
         <v>179</v>
       </c>
@@ -3667,11 +3679,11 @@
         <v>125</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A152)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="54">
       <c r="A153" s="5" t="s">
         <v>123</v>
       </c>
@@ -3683,11 +3695,11 @@
         <v>125</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A153)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="36">
       <c r="A154" s="5" t="s">
         <v>180</v>
       </c>
@@ -3699,11 +3711,11 @@
         <v>125</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A154)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18">
       <c r="A155" s="5" t="s">
         <v>184</v>
       </c>
@@ -3715,11 +3727,11 @@
         <v>125</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A155)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18">
       <c r="A156" s="5" t="s">
         <v>185</v>
       </c>
@@ -3731,11 +3743,11 @@
         <v>125</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A156)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="36">
       <c r="A157" s="5" t="s">
         <v>186</v>
       </c>
@@ -3747,11 +3759,11 @@
         <v>125</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A157)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="313.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="342">
       <c r="A158" s="5" t="s">
         <v>190</v>
       </c>
@@ -3763,11 +3775,11 @@
         <v>125</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A158)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="5" t="s">
         <v>192</v>
       </c>
@@ -3777,11 +3789,11 @@
         <v>125</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A159)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
         <v>193</v>
       </c>
@@ -3791,11 +3803,11 @@
         <v>125</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A160)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="18">
       <c r="A161" s="5" t="s">
         <v>196</v>
       </c>
@@ -3809,11 +3821,11 @@
         <v>125</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A161)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18">
       <c r="A162" s="5" t="s">
         <v>199</v>
       </c>
@@ -3827,11 +3839,11 @@
         <v>125</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A162)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="36">
       <c r="A163" s="5" t="s">
         <v>204</v>
       </c>
@@ -3845,11 +3857,11 @@
         <v>125</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A163)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="36">
       <c r="A164" s="5" t="s">
         <v>208</v>
       </c>
@@ -3863,11 +3875,11 @@
         <v>125</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A164)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="36">
       <c r="A165" s="5" t="s">
         <v>207</v>
       </c>
@@ -3881,11 +3893,11 @@
         <v>125</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A165)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
         <v>213</v>
       </c>
@@ -3895,11 +3907,11 @@
         <v>125</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A166)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
         <v>214</v>
       </c>
@@ -3909,11 +3921,11 @@
         <v>125</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A167)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
         <v>215</v>
       </c>
@@ -3923,11 +3935,11 @@
         <v>125</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A168)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="5" t="s">
         <v>216</v>
       </c>
@@ -3937,11 +3949,11 @@
         <v>125</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A169)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="5" t="s">
         <v>217</v>
       </c>
@@ -3951,11 +3963,11 @@
         <v>125</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A170)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="5" t="s">
         <v>218</v>
       </c>
@@ -3965,11 +3977,11 @@
         <v>125</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A171)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
         <v>219</v>
       </c>
@@ -3981,11 +3993,11 @@
         <v>125</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A172)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="5" t="s">
         <v>221</v>
       </c>
@@ -3995,11 +4007,11 @@
         <v>125</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A173)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="5" t="s">
         <v>220</v>
       </c>
@@ -4009,11 +4021,11 @@
         <v>125</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A174)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="5" t="s">
         <v>223</v>
       </c>
@@ -4023,11 +4035,11 @@
         <v>125</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A175)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="5" t="s">
         <v>224</v>
       </c>
@@ -4037,11 +4049,11 @@
         <v>125</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A176)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="5" t="s">
         <v>225</v>
       </c>
@@ -4051,11 +4063,11 @@
         <v>146</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E177:E205" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
         <v>226</v>
       </c>
@@ -4065,11 +4077,11 @@
         <v>146</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A178)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
         <v>227</v>
       </c>
@@ -4079,11 +4091,11 @@
         <v>146</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A179)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="5" t="s">
         <v>228</v>
       </c>
@@ -4093,11 +4105,11 @@
         <v>146</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A180)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="5" t="s">
         <v>229</v>
       </c>
@@ -4107,11 +4119,11 @@
         <v>146</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A181)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="5" t="s">
         <v>230</v>
       </c>
@@ -4121,11 +4133,11 @@
         <v>146</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A182)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="5" t="s">
         <v>231</v>
       </c>
@@ -4135,11 +4147,11 @@
         <v>146</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A183)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="5" t="s">
         <v>232</v>
       </c>
@@ -4151,11 +4163,11 @@
         <v>146</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A184)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="5" t="s">
         <v>234</v>
       </c>
@@ -4163,11 +4175,11 @@
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A185)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
         <v>69</v>
       </c>
@@ -4175,11 +4187,11 @@
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A186)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
         <v>70</v>
       </c>
@@ -4187,11 +4199,11 @@
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A187)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="5" t="s">
         <v>72</v>
       </c>
@@ -4199,11 +4211,11 @@
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A188)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="5" t="s">
         <v>75</v>
       </c>
@@ -4211,11 +4223,11 @@
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A189)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="5" t="s">
         <v>82</v>
       </c>
@@ -4223,11 +4235,11 @@
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A190)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="72">
       <c r="A191" s="5" t="s">
         <v>235</v>
       </c>
@@ -4241,11 +4253,11 @@
         <v>235</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A191)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="72">
       <c r="A192" s="5" t="s">
         <v>244</v>
       </c>
@@ -4259,11 +4271,11 @@
         <v>247</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A192)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="36">
       <c r="A193" s="5" t="s">
         <v>245</v>
       </c>
@@ -4277,127 +4289,133 @@
         <v>246</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A193)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="B194" s="1"/>
       <c r="C194" s="7"/>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E194" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A194)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="B195" s="1"/>
       <c r="C195" s="7"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A195)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="5"/>
       <c r="B196" s="1"/>
       <c r="C196" s="7"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A196)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="5"/>
       <c r="B197" s="1"/>
       <c r="C197" s="7"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A197)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="5"/>
       <c r="B198" s="1"/>
       <c r="C198" s="7"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A198)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="5"/>
       <c r="B199" s="1"/>
       <c r="C199" s="7"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A199)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="5"/>
       <c r="B200" s="1"/>
       <c r="C200" s="7"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A200)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="5"/>
       <c r="B201" s="1"/>
       <c r="C201" s="7"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A201)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="5"/>
       <c r="B202" s="1"/>
       <c r="C202" s="7"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A202)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="5"/>
       <c r="B203" s="1"/>
       <c r="C203" s="7"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A203)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="5"/>
       <c r="B204" s="1"/>
       <c r="C204" s="7"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A204)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="5"/>
       <c r="B205" s="1"/>
       <c r="C205" s="7"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="str">
-        <f>IF(COUNTIF($A:$A,$A205)&gt;1, "중복", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231FF999-839A-724B-A0A2-4A6C0ECDEF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077511B-790F-BB4C-8AF4-6F42F02ED9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="260">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1096,6 +1096,18 @@
   </si>
   <si>
     <t>트랜잭션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현실 세계의 객체와 관계를 추상화 하고 설계하는 과정. 이를 통해 핵심적인 부분을 명확하게 기술할 수 있고, 이어서 컴퓨터 상에서 구현할 수 있게 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,7 +1491,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
+      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4319,11 +4331,19 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="5"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="1"/>
+    <row r="196" spans="1:5" ht="36">
+      <c r="A196" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E196" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077511B-790F-BB4C-8AF4-6F42F02ED9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7904219E-822C-B143-8C1D-7A74353FA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="263">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,18 @@
   </si>
   <si>
     <t>현실 세계의 객체와 관계를 추상화 하고 설계하는 과정. 이를 통해 핵심적인 부분을 명확하게 기술할 수 있고, 이어서 컴퓨터 상에서 구현할 수 있게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카디널리티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardinality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에서 엔티티 간의 관계에서 한 엔티티가 다른 엔티티와 맺을 수 있는 관계의 수.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C183" sqref="C183"/>
+      <selection pane="bottomLeft" activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4349,11 +4361,19 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="5"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="1"/>
+    <row r="197" spans="1:5" ht="18">
+      <c r="A197" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E197" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>

--- a/assets/xlsx/word_list_computerscience.xlsx
+++ b/assets/xlsx/word_list_computerscience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7904219E-822C-B143-8C1D-7A74353FA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516432BF-C665-417E-BBA1-EDBEE489E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="282">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1122,12 +1122,89 @@
     <t>데이터베이스에서 엔티티 간의 관계에서 한 엔티티가 다른 엔티티와 맺을 수 있는 관계의 수.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기밀성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무결성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부인방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보호, 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidentiality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-repudiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허락되지 않은 자가 정보에 접근할 수 없게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허락되지 않은 자가 정보를 임의로 위변조할 수 없게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허락된 자가 정보에 접근할 때 방해받지 않도록 함. 필요할 때 언제든 정보를 사용할 수 있어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보에 관여한 자가 이를 부인하지 못하도록 하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 실체가 자신이 그 실체라고 주장하는 것에 대해 확인할 수 있고, 신뢰할 수 있는 것.  
+실체란 정보를 이용하는 사용자, 혹은 정보 그 자체 등.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보에 대해 허락된 접근만 허용하고, 그 외의 접근은 허용하지 않는 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1499,23 +1576,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C197" sqref="C197"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="100.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1546,7 +1623,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1560,7 +1637,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1574,7 +1651,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -1588,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
@@ -1602,7 +1679,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -1616,7 +1693,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>118</v>
       </c>
@@ -1630,7 +1707,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -1644,7 +1721,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
@@ -1658,7 +1735,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -1672,7 +1749,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -1686,7 +1763,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72">
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1781,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="54">
+    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1799,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72">
+    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1817,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1751,7 +1828,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1842,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +1856,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1870,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1807,7 +1884,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1898,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1926,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1863,7 +1940,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1877,7 +1954,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1891,7 +1968,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +1996,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="144">
+    <row r="29" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1937,7 +2014,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="108">
+    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1955,7 +2032,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +2046,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1983,7 +2060,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1997,7 +2074,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2102,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2039,7 +2116,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -2053,7 +2130,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -2067,7 +2144,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -2081,7 +2158,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -2095,7 +2172,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -2109,7 +2186,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -2123,7 +2200,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2137,7 +2214,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2151,7 +2228,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2242,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -2179,7 +2256,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2270,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,7 +2284,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2312,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -2249,7 +2326,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2340,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -2277,7 +2354,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2291,7 +2368,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2305,7 +2382,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -2319,7 +2396,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2410,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2349,7 +2426,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -2363,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2454,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2391,7 +2468,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2405,7 +2482,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2419,7 +2496,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,7 +2510,7 @@
         <v>중복</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2447,7 +2524,7 @@
         <v>중복</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2461,7 +2538,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2475,7 +2552,7 @@
         <v>중복</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2489,7 +2566,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2503,7 +2580,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -2517,7 +2594,7 @@
         <v>중복</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -2531,7 +2608,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -2545,7 +2622,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -2559,7 +2636,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -2573,7 +2650,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -2587,7 +2664,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
@@ -2601,7 +2678,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2615,7 +2692,7 @@
         <v>중복</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
@@ -2629,7 +2706,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
@@ -2643,7 +2720,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2657,7 +2734,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2671,7 +2748,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2685,7 +2762,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2699,7 +2776,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
@@ -2713,7 +2790,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
@@ -2727,7 +2804,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -2741,7 +2818,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2832,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -2769,7 +2846,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2783,7 +2860,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2797,7 +2874,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -2811,7 +2888,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2825,7 +2902,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2839,7 +2916,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2853,7 +2930,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2867,7 +2944,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2881,7 +2958,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
@@ -2895,7 +2972,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
@@ -2909,7 +2986,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -2923,7 +3000,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
@@ -2937,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -2951,7 +3028,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
@@ -2965,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
@@ -2979,7 +3056,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
@@ -2993,7 +3070,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -3007,7 +3084,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>111</v>
       </c>
@@ -3021,7 +3098,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>124</v>
       </c>
@@ -3037,7 +3114,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>126</v>
       </c>
@@ -3051,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>129</v>
       </c>
@@ -3065,7 +3142,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>130</v>
       </c>
@@ -3079,7 +3156,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>131</v>
       </c>
@@ -3093,7 +3170,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>132</v>
       </c>
@@ -3107,7 +3184,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="36">
+    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>237</v>
       </c>
@@ -3125,7 +3202,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>133</v>
       </c>
@@ -3143,7 +3220,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>239</v>
       </c>
@@ -3161,7 +3238,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>134</v>
       </c>
@@ -3175,7 +3252,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>135</v>
       </c>
@@ -3189,7 +3266,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>136</v>
       </c>
@@ -3203,7 +3280,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>138</v>
       </c>
@@ -3217,7 +3294,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>139</v>
       </c>
@@ -3231,7 +3308,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>140</v>
       </c>
@@ -3245,7 +3322,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>141</v>
       </c>
@@ -3259,7 +3336,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>142</v>
       </c>
@@ -3273,7 +3350,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>143</v>
       </c>
@@ -3287,7 +3364,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>144</v>
       </c>
@@ -3301,7 +3378,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>145</v>
       </c>
@@ -3315,7 +3392,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>147</v>
       </c>
@@ -3329,7 +3406,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>148</v>
       </c>
@@ -3343,7 +3420,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>149</v>
       </c>
@@ -3357,7 +3434,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>150</v>
       </c>
@@ -3371,7 +3448,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="36">
+    <row r="131" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>151</v>
       </c>
@@ -3389,7 +3466,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="18">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>152</v>
       </c>
@@ -3407,7 +3484,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>153</v>
       </c>
@@ -3421,7 +3498,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>154</v>
       </c>
@@ -3435,7 +3512,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>155</v>
       </c>
@@ -3449,7 +3526,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>156</v>
       </c>
@@ -3463,7 +3540,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>157</v>
       </c>
@@ -3477,7 +3554,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>158</v>
       </c>
@@ -3491,7 +3568,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>159</v>
       </c>
@@ -3505,7 +3582,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>160</v>
       </c>
@@ -3519,7 +3596,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>161</v>
       </c>
@@ -3533,7 +3610,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="54">
+    <row r="142" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>165</v>
       </c>
@@ -3549,7 +3626,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="54">
+    <row r="143" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>127</v>
       </c>
@@ -3565,7 +3642,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>128</v>
       </c>
@@ -3581,7 +3658,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="54">
+    <row r="145" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>162</v>
       </c>
@@ -3593,11 +3670,11 @@
         <v>125</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f t="shared" ref="E145:E176" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="54">
+        <f t="shared" ref="E145:E208" si="5">IF(COUNTIF($A:$A,$A145)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>163</v>
       </c>
@@ -3613,7 +3690,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="18">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>164</v>
       </c>
@@ -3629,7 +3706,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="54">
+    <row r="148" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>172</v>
       </c>
@@ -3645,7 +3722,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>174</v>
       </c>
@@ -3659,7 +3736,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>175</v>
       </c>
@@ -3675,7 +3752,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="36">
+    <row r="151" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>176</v>
       </c>
@@ -3691,7 +3768,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="36">
+    <row r="152" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>179</v>
       </c>
@@ -3707,7 +3784,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="54">
+    <row r="153" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>123</v>
       </c>
@@ -3723,7 +3800,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="36">
+    <row r="154" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>180</v>
       </c>
@@ -3739,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="18">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>184</v>
       </c>
@@ -3755,7 +3832,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="18">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>185</v>
       </c>
@@ -3771,7 +3848,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="36">
+    <row r="157" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>186</v>
       </c>
@@ -3787,7 +3864,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="342">
+    <row r="158" spans="1:5" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>190</v>
       </c>
@@ -3803,7 +3880,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>192</v>
       </c>
@@ -3817,7 +3894,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>193</v>
       </c>
@@ -3831,7 +3908,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="18">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>196</v>
       </c>
@@ -3849,7 +3926,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="18">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>199</v>
       </c>
@@ -3867,7 +3944,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="36">
+    <row r="163" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>204</v>
       </c>
@@ -3885,7 +3962,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="36">
+    <row r="164" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>208</v>
       </c>
@@ -3903,7 +3980,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="36">
+    <row r="165" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>207</v>
       </c>
@@ -3921,7 +3998,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>213</v>
       </c>
@@ -3935,7 +4012,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>214</v>
       </c>
@@ -3949,7 +4026,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>215</v>
       </c>
@@ -3963,7 +4040,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>216</v>
       </c>
@@ -3977,7 +4054,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>217</v>
       </c>
@@ -3991,7 +4068,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>218</v>
       </c>
@@ -4005,7 +4082,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>219</v>
       </c>
@@ -4021,7 +4098,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>221</v>
       </c>
@@ -4035,7 +4112,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>220</v>
       </c>
@@ -4049,7 +4126,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>223</v>
       </c>
@@ -4063,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>224</v>
       </c>
@@ -4077,7 +4154,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>225</v>
       </c>
@@ -4087,11 +4164,11 @@
         <v>146</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f t="shared" ref="E177:E205" si="6">IF(COUNTIF($A:$A,$A177)&gt;1, "중복", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>226</v>
       </c>
@@ -4101,11 +4178,11 @@
         <v>146</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>227</v>
       </c>
@@ -4115,11 +4192,11 @@
         <v>146</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>228</v>
       </c>
@@ -4129,11 +4206,11 @@
         <v>146</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>229</v>
       </c>
@@ -4143,11 +4220,11 @@
         <v>146</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>230</v>
       </c>
@@ -4157,11 +4234,11 @@
         <v>146</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>231</v>
       </c>
@@ -4171,11 +4248,11 @@
         <v>146</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>232</v>
       </c>
@@ -4187,11 +4264,11 @@
         <v>146</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>234</v>
       </c>
@@ -4199,11 +4276,11 @@
       <c r="C185" s="7"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>69</v>
       </c>
@@ -4211,11 +4288,11 @@
       <c r="C186" s="7"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>70</v>
       </c>
@@ -4223,11 +4300,11 @@
       <c r="C187" s="7"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>72</v>
       </c>
@@ -4235,11 +4312,11 @@
       <c r="C188" s="7"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>75</v>
       </c>
@@ -4247,11 +4324,11 @@
       <c r="C189" s="7"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>82</v>
       </c>
@@ -4259,11 +4336,11 @@
       <c r="C190" s="7"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>중복</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="72">
+    <row r="191" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>235</v>
       </c>
@@ -4277,11 +4354,11 @@
         <v>235</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="72">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>244</v>
       </c>
@@ -4295,11 +4372,11 @@
         <v>247</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="36">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>245</v>
       </c>
@@ -4313,11 +4390,11 @@
         <v>246</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>254</v>
       </c>
@@ -4327,11 +4404,11 @@
         <v>255</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>256</v>
       </c>
@@ -4339,11 +4416,11 @@
       <c r="C195" s="7"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="36">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>257</v>
       </c>
@@ -4357,11 +4434,11 @@
         <v>255</v>
       </c>
       <c r="E196" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="18">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>260</v>
       </c>
@@ -4375,86 +4452,304 @@
         <v>255</v>
       </c>
       <c r="E197" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="5"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E198" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="5"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E199" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="5"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E200" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="5"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E201" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="5"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E202" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="5"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="E203" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="1"/>
       <c r="C204" s="7"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="1"/>
       <c r="C205" s="7"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="5"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="5"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="5"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="5"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1" t="str">
+        <f t="shared" ref="E209:E222" si="6">IF(COUNTIF($A:$A,$A209)&gt;1, "중복", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="5"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="5"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="5"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="5"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="5"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="5"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="5"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="5"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="5"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="5"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="5"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="5"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="5"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
